--- a/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
+++ b/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <x:si>
     <x:t>엔진 내부 구조에 친숙해지기 핵심 5개 클래스(UObject
 Actor
@@ -28,151 +28,142 @@
 Character)</x:t>
   </x:si>
   <x:si>
-    <x:t>복습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직렬화</x:t>
+    <x:t>엔진 초기화 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 날때 블렌더 공부하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>??</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(인터페이스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학기중 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(델리게이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(컴포지션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중간고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">상호작용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기말고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ai 시스템 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로코모션,공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방학 기간 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼 엔진 c++</x:t>
   </x:si>
   <x:si>
     <x:t>적 오브젝트 component 제작</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">A* 길찾기 알고리즘으로 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(엔진 오브젝트 리플렉션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">캐릭터 애니메이션/공격 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간 날때 블렌더 공부하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 컨테이너 라이브러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 입력/컨트롤 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지,에셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학기중 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㄴ렌더링파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(컴포지션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(인터페이스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(델리게이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기말고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상호작용 </x:t>
+    <x:t>procedural mesh(동적 메쉬 절단) 제작…</x:t>
   </x:si>
   <x:si>
     <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
   </x:si>
   <x:si>
-    <x:t>procedural mesh(동적 메쉬 절단) 제작…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 내부구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방학 기간 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼엔진 내부구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>component제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼엔진 c++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 c++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목표 까지 길찾아주는 component 제작</x:t>
+    <x:t>월드생성 코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
   </x:si>
   <x:si>
     <x:t>Main캐릭터관련 component 제작</x:t>
@@ -845,7 +836,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="63">
+  <x:cellXfs count="65">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1501,6 +1492,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2197,22 +2214,22 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A9:S39"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I3" activeCellId="0" sqref="I3:I3"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="M8" activeCellId="0" sqref="M8:M8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="3" max="3" width="18.19921875" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="20.796875" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="17.59765625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="25.6015625" style="1" customWidth="1"/>
     <x:col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="23.6015625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="9" spans="2:19">
       <x:c r="B9" s="37" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C9" s="38"/>
       <x:c r="D9" s="38"/>
@@ -2255,65 +2272,65 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75">
       <x:c r="B11" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="48"/>
       <x:c r="D11" s="49" t="s">
-        <x:v>38</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="48"/>
       <x:c r="F11" s="43" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="50"/>
       <x:c r="H11" s="43" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I11" s="50"/>
       <x:c r="J11" s="43" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K11" s="50"/>
       <x:c r="L11" s="43" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M11" s="50"/>
       <x:c r="N11" s="43" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O11" s="44"/>
       <x:c r="P11" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q11" s="44"/>
       <x:c r="R11" s="43" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="S11" s="46"/>
     </x:row>
     <x:row r="12" spans="2:19">
       <x:c r="B12" s="51" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="52"/>
       <x:c r="D12" s="51" t="s">
-        <x:v>47</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="52"/>
-      <x:c r="F12" s="51" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G12" s="52"/>
+      <x:c r="F12" s="63" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G12" s="64"/>
       <x:c r="H12" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I12" s="52"/>
       <x:c r="J12" s="51" t="s">
-        <x:v>43</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K12" s="52"/>
       <x:c r="L12" s="51" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M12" s="26"/>
       <x:c r="N12" s="26"/>
@@ -2328,8 +2345,8 @@
       <x:c r="C13" s="36"/>
       <x:c r="D13" s="35"/>
       <x:c r="E13" s="36"/>
-      <x:c r="F13" s="35"/>
-      <x:c r="G13" s="36"/>
+      <x:c r="F13" s="61"/>
+      <x:c r="G13" s="62"/>
       <x:c r="H13" s="35"/>
       <x:c r="I13" s="36"/>
       <x:c r="J13" s="35"/>
@@ -2345,21 +2362,21 @@
     </x:row>
     <x:row r="14" spans="2:19">
       <x:c r="B14" s="35" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14" s="36"/>
       <x:c r="D14" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
-      <x:c r="F14" s="35" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G14" s="36"/>
-      <x:c r="H14" s="35"/>
+      <x:c r="F14" s="61"/>
+      <x:c r="G14" s="62"/>
+      <x:c r="H14" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="I14" s="36"/>
       <x:c r="J14" s="35" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K14" s="36"/>
       <x:c r="L14" s="35"/>
@@ -2373,15 +2390,13 @@
     </x:row>
     <x:row r="15" spans="2:19">
       <x:c r="B15" s="61" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="62"/>
-      <x:c r="D15" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="D15" s="35"/>
       <x:c r="E15" s="36"/>
-      <x:c r="F15" s="35"/>
-      <x:c r="G15" s="36"/>
+      <x:c r="F15" s="61"/>
+      <x:c r="G15" s="62"/>
       <x:c r="H15" s="35"/>
       <x:c r="I15" s="36"/>
       <x:c r="J15" s="35"/>
@@ -2399,15 +2414,13 @@
     </x:row>
     <x:row r="16" spans="2:19">
       <x:c r="B16" s="61" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="62"/>
-      <x:c r="D16" s="35" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="D16" s="35"/>
       <x:c r="E16" s="36"/>
       <x:c r="F16" s="61" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
       <x:c r="H16" s="35"/>
@@ -2425,13 +2438,13 @@
     </x:row>
     <x:row r="17" spans="2:19">
       <x:c r="B17" s="61" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C17" s="62"/>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="4"/>
       <x:c r="F17" s="61" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
       <x:c r="H17" s="3"/>
@@ -2509,7 +2522,7 @@
     </x:row>
     <x:row r="21" spans="2:19">
       <x:c r="B21" s="58" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C21" s="59"/>
       <x:c r="D21" s="59"/>
@@ -2609,41 +2622,41 @@
     </x:row>
     <x:row r="28" spans="2:17" ht="16.75">
       <x:c r="B28" s="25" t="s">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="29"/>
       <x:c r="D28" s="25" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E28" s="29"/>
       <x:c r="F28" s="25" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G28" s="29"/>
       <x:c r="H28" s="25" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I28" s="29"/>
       <x:c r="J28" s="25" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K28" s="29"/>
       <x:c r="L28" s="25" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M28" s="29"/>
       <x:c r="N28" s="25" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O28" s="29"/>
       <x:c r="P28" s="25" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="Q28" s="29"/>
     </x:row>
     <x:row r="29" spans="2:17">
       <x:c r="B29" s="16" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C29" s="17"/>
       <x:c r="D29" s="17"/>
@@ -2651,7 +2664,7 @@
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
       <x:c r="H29" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I29" s="17"/>
       <x:c r="J29" s="17"/>
@@ -2659,11 +2672,11 @@
       <x:c r="L29" s="17"/>
       <x:c r="M29" s="18"/>
       <x:c r="N29" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O29" s="17"/>
       <x:c r="P29" s="16" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q29" s="18"/>
     </x:row>
@@ -2692,9 +2705,7 @@
       <x:c r="E31" s="8"/>
       <x:c r="F31" s="8"/>
       <x:c r="G31" s="8"/>
-      <x:c r="H31" s="22" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="H31" s="22"/>
       <x:c r="I31" s="23"/>
       <x:c r="J31" s="23"/>
       <x:c r="K31" s="23"/>
@@ -2703,7 +2714,7 @@
       <x:c r="N31" s="14"/>
       <x:c r="O31" s="12"/>
       <x:c r="P31" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="Q31" s="21"/>
     </x:row>
@@ -2781,23 +2792,23 @@
     </x:row>
     <x:row r="36" spans="2:13" ht="17.149999999999999">
       <x:c r="B36" s="25" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C36" s="26"/>
       <x:c r="D36" s="26" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E36" s="26"/>
       <x:c r="F36" s="26" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G36" s="26"/>
       <x:c r="H36" s="26" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I36" s="26"/>
       <x:c r="J36" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K36" s="27"/>
       <x:c r="L36" s="28"/>
@@ -2805,13 +2816,13 @@
     </x:row>
     <x:row r="37" spans="2:13">
       <x:c r="B37" s="16" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C37" s="17"/>
       <x:c r="D37" s="17"/>
       <x:c r="E37" s="18"/>
       <x:c r="F37" s="16" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G37" s="17"/>
       <x:c r="H37" s="17"/>
@@ -2848,7 +2859,7 @@
       <x:c r="I39" s="24"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="55">
+  <x:mergeCells count="54">
     <x:mergeCell ref="B37:E39"/>
     <x:mergeCell ref="F37:I39"/>
     <x:mergeCell ref="J37:K38"/>
@@ -2892,8 +2903,6 @@
     <x:mergeCell ref="B21:K23"/>
     <x:mergeCell ref="D15:E15"/>
     <x:mergeCell ref="D16:E16"/>
-    <x:mergeCell ref="F12:G13"/>
-    <x:mergeCell ref="F14:G15"/>
     <x:mergeCell ref="B12:C13"/>
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D12:E13"/>
@@ -2904,8 +2913,9 @@
     <x:mergeCell ref="B17:C17"/>
     <x:mergeCell ref="F16:G16"/>
     <x:mergeCell ref="F17:G17"/>
+    <x:mergeCell ref="F12:G15"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
+++ b/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
@@ -21,6 +21,105 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <x:si>
+    <x:t>7월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(인터페이스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학기중 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중간고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(컴포지션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">상호작용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(델리게이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기말고사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진 초기화 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 날때 블렌더 공부하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
+  </x:si>
+  <x:si>
     <x:t>엔진 내부 구조에 친숙해지기 핵심 5개 클래스(UObject
 Actor
 Pawn
@@ -28,145 +127,46 @@
 Character)</x:t>
   </x:si>
   <x:si>
-    <x:t>엔진 초기화 소스코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간 날때 블렌더 공부하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적 오브젝트 component 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>procedural mesh(동적 메쉬 절단) 제작…</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
   </x:si>
   <x:si>
-    <x:t>??</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(인터페이스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학기중 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(델리게이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(컴포지션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상호작용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기말고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
+    <x:t>방학 기간 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>component제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼 엔진 c++</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로코모션,공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월드생성 코드 분석</x:t>
   </x:si>
   <x:si>
     <x:t>ai 시스템 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>로코모션,공격 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방학 기간 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>component제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 c++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적 오브젝트 component 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>procedural mesh(동적 메쉬 절단) 제작…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월드생성 코드 분석</x:t>
+    <x:t>Main캐릭터관련 component 제작</x:t>
   </x:si>
   <x:si>
     <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
   </x:si>
   <x:si>
-    <x:t>Main캐릭터관련 component 제작</x:t>
+    <x:t>유데미 강의 공부</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2215,7 +2215,7 @@
   <x:dimension ref="A9:S39"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="M8" activeCellId="0" sqref="M8:M8"/>
+      <x:selection activeCell="I18" activeCellId="0" sqref="I18:I18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2272,39 +2272,39 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75">
       <x:c r="B11" s="47" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="48"/>
       <x:c r="D11" s="49" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="48"/>
       <x:c r="F11" s="43" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G11" s="50"/>
       <x:c r="H11" s="43" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="50"/>
       <x:c r="J11" s="43" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K11" s="50"/>
       <x:c r="L11" s="43" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M11" s="50"/>
       <x:c r="N11" s="43" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O11" s="44"/>
       <x:c r="P11" s="45" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q11" s="44"/>
       <x:c r="R11" s="43" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="S11" s="46"/>
     </x:row>
@@ -2314,7 +2314,7 @@
       </x:c>
       <x:c r="C12" s="52"/>
       <x:c r="D12" s="51" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E12" s="52"/>
       <x:c r="F12" s="63" t="s">
@@ -2322,15 +2322,15 @@
       </x:c>
       <x:c r="G12" s="64"/>
       <x:c r="H12" s="51" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I12" s="52"/>
       <x:c r="J12" s="51" t="s">
-        <x:v>6</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K12" s="52"/>
       <x:c r="L12" s="51" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M12" s="26"/>
       <x:c r="N12" s="26"/>
@@ -2362,21 +2362,19 @@
     </x:row>
     <x:row r="14" spans="2:19">
       <x:c r="B14" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="36"/>
       <x:c r="D14" s="35" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="36"/>
       <x:c r="F14" s="61"/>
       <x:c r="G14" s="62"/>
-      <x:c r="H14" s="35" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="H14" s="35"/>
       <x:c r="I14" s="36"/>
       <x:c r="J14" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K14" s="36"/>
       <x:c r="L14" s="35"/>
@@ -2390,7 +2388,7 @@
     </x:row>
     <x:row r="15" spans="2:19">
       <x:c r="B15" s="61" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C15" s="62"/>
       <x:c r="D15" s="35"/>
@@ -2402,7 +2400,7 @@
       <x:c r="J15" s="35"/>
       <x:c r="K15" s="36"/>
       <x:c r="L15" s="54" t="s">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M15" s="53"/>
       <x:c r="N15" s="53"/>
@@ -2414,19 +2412,21 @@
     </x:row>
     <x:row r="16" spans="2:19">
       <x:c r="B16" s="61" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="62"/>
       <x:c r="D16" s="35"/>
       <x:c r="E16" s="36"/>
       <x:c r="F16" s="61" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G16" s="62"/>
       <x:c r="H16" s="35"/>
       <x:c r="I16" s="36"/>
-      <x:c r="J16" s="3"/>
-      <x:c r="K16" s="4"/>
+      <x:c r="J16" s="61" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K16" s="62"/>
       <x:c r="L16" s="35"/>
       <x:c r="M16" s="53"/>
       <x:c r="N16" s="53"/>
@@ -2438,13 +2438,13 @@
     </x:row>
     <x:row r="17" spans="2:19">
       <x:c r="B17" s="61" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="62"/>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="4"/>
       <x:c r="F17" s="61" t="s">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G17" s="62"/>
       <x:c r="H17" s="3"/>
@@ -2522,7 +2522,7 @@
     </x:row>
     <x:row r="21" spans="2:19">
       <x:c r="B21" s="58" t="s">
-        <x:v>3</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="59"/>
       <x:c r="D21" s="59"/>
@@ -2584,7 +2584,7 @@
     </x:row>
     <x:row r="26" spans="2:17">
       <x:c r="B26" s="30" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="31"/>
       <x:c r="D26" s="31"/>
@@ -2622,41 +2622,41 @@
     </x:row>
     <x:row r="28" spans="2:17" ht="16.75">
       <x:c r="B28" s="25" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="29"/>
       <x:c r="D28" s="25" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E28" s="29"/>
       <x:c r="F28" s="25" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G28" s="29"/>
       <x:c r="H28" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I28" s="29"/>
       <x:c r="J28" s="25" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K28" s="29"/>
       <x:c r="L28" s="25" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="29"/>
       <x:c r="N28" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O28" s="29"/>
       <x:c r="P28" s="25" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="Q28" s="29"/>
     </x:row>
     <x:row r="29" spans="2:17">
       <x:c r="B29" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C29" s="17"/>
       <x:c r="D29" s="17"/>
@@ -2664,7 +2664,7 @@
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17"/>
       <x:c r="H29" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I29" s="17"/>
       <x:c r="J29" s="17"/>
@@ -2672,11 +2672,11 @@
       <x:c r="L29" s="17"/>
       <x:c r="M29" s="18"/>
       <x:c r="N29" s="16" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O29" s="17"/>
       <x:c r="P29" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="Q29" s="18"/>
     </x:row>
@@ -2796,19 +2796,19 @@
       </x:c>
       <x:c r="C36" s="26"/>
       <x:c r="D36" s="26" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E36" s="26"/>
       <x:c r="F36" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G36" s="26"/>
       <x:c r="H36" s="26" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I36" s="26"/>
       <x:c r="J36" s="27" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K36" s="27"/>
       <x:c r="L36" s="28"/>
@@ -2816,19 +2816,19 @@
     </x:row>
     <x:row r="37" spans="2:13">
       <x:c r="B37" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C37" s="17"/>
       <x:c r="D37" s="17"/>
       <x:c r="E37" s="18"/>
       <x:c r="F37" s="16" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G37" s="17"/>
       <x:c r="H37" s="17"/>
       <x:c r="I37" s="18"/>
       <x:c r="J37" s="20" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K37" s="20"/>
       <x:c r="L37" s="3"/>
@@ -2859,7 +2859,7 @@
       <x:c r="I39" s="24"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="54">
+  <x:mergeCells count="55">
     <x:mergeCell ref="B37:E39"/>
     <x:mergeCell ref="F37:I39"/>
     <x:mergeCell ref="J37:K38"/>
@@ -2914,6 +2914,7 @@
     <x:mergeCell ref="F16:G16"/>
     <x:mergeCell ref="F17:G17"/>
     <x:mergeCell ref="F12:G15"/>
+    <x:mergeCell ref="J16:K16"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
+++ b/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
@@ -19,105 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
-  <x:si>
-    <x:t>7월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(인터페이스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학기중 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(컴포지션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">상호작용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(델리게이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기말고사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진 초기화 소스코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(엔진 오브젝트 리플렉션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간 날때 블렌더 공부하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <x:si>
+    <x:t xml:space="preserve"> 근거리 스킬1
+(메쉬절단)</x:t>
   </x:si>
   <x:si>
     <x:t>엔진 내부 구조에 친숙해지기 핵심 5개 클래스(UObject
@@ -127,46 +32,145 @@
 Character)</x:t>
   </x:si>
   <x:si>
+    <x:t>엔진 초기화 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 날때 블렌더 공부하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(인터페이스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학기중 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(컴포지션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(델리게이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈것 개발
+(로봇(?))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존 계획에서 못한것들 보충</x:t>
+  </x:si>
+  <x:si>
     <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>적 오브젝트 component 제작</x:t>
-  </x:si>
-  <x:si>
     <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
   </x:si>
   <x:si>
-    <x:t>procedural mesh(동적 메쉬 절단) 제작…</x:t>
+    <x:t>로코모션,공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ai 시스템 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼 엔진 c++</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유데미 강의 공부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월드생성 코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방학 기간 계획</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
   </x:si>
   <x:si>
-    <x:t>방학 기간 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>component제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 c++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로코모션,공격 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월드생성 코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ai 시스템 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main캐릭터관련 component 제작</x:t>
+    <x:t>개발한것들
+합쳐서 게임형식으로 마무리 하기</x:t>
   </x:si>
   <x:si>
     <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
   </x:si>
   <x:si>
-    <x:t>유데미 강의 공부</x:t>
+    <x:t>원거리 스킬1 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 스킬2 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근거리 스킬2
+(시간 되돌리기)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -205,13 +209,55 @@
       <x:color rgb="ff000000"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="9">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffc0cdef"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffe0e0e0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffef99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff9be5c8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff0f0f0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffceb0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="44">
     <x:border>
@@ -383,20 +429,6 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff4472c4"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff4472c4"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left style="medium">
         <x:color rgb="ffff0000"/>
       </x:left>
@@ -824,6 +856,20 @@
         <x:color rgb="ff4472c4"/>
       </x:right>
       <x:top style="thin">
+        <x:color rgb="ff4472c4"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff4472c4"/>
+      </x:right>
+      <x:top style="medium">
         <x:color rgb="ff4472c4"/>
       </x:top>
       <x:bottom>
@@ -836,7 +882,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="65">
+  <x:cellXfs count="96">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -887,26 +933,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -926,84 +959,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1121,6 +1076,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1134,32 +1115,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1349,19 +1304,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1394,6 +1336,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1407,19 +1375,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1459,19 +1414,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1498,6 +1440,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1511,14 +1466,508 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2214,8 +2663,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A9:S39"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I18" activeCellId="0" sqref="I18:I18"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N40" activeCellId="0" sqref="N40:N40"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2228,237 +2677,237 @@
   </x:cols>
   <x:sheetData>
     <x:row r="9" spans="2:19">
-      <x:c r="B9" s="37" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C9" s="38"/>
-      <x:c r="D9" s="38"/>
-      <x:c r="E9" s="38"/>
-      <x:c r="F9" s="38"/>
-      <x:c r="G9" s="38"/>
-      <x:c r="H9" s="38"/>
-      <x:c r="I9" s="38"/>
-      <x:c r="J9" s="38"/>
-      <x:c r="K9" s="38"/>
-      <x:c r="L9" s="38"/>
-      <x:c r="M9" s="38"/>
-      <x:c r="N9" s="38"/>
-      <x:c r="O9" s="38"/>
-      <x:c r="P9" s="38"/>
-      <x:c r="Q9" s="38"/>
-      <x:c r="R9" s="38"/>
-      <x:c r="S9" s="39"/>
+      <x:c r="B9" s="29" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="30"/>
+      <x:c r="D9" s="30"/>
+      <x:c r="E9" s="30"/>
+      <x:c r="F9" s="30"/>
+      <x:c r="G9" s="30"/>
+      <x:c r="H9" s="30"/>
+      <x:c r="I9" s="30"/>
+      <x:c r="J9" s="30"/>
+      <x:c r="K9" s="30"/>
+      <x:c r="L9" s="30"/>
+      <x:c r="M9" s="30"/>
+      <x:c r="N9" s="30"/>
+      <x:c r="O9" s="30"/>
+      <x:c r="P9" s="30"/>
+      <x:c r="Q9" s="30"/>
+      <x:c r="R9" s="30"/>
+      <x:c r="S9" s="31"/>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="2"/>
-      <x:c r="B10" s="40"/>
-      <x:c r="C10" s="41"/>
-      <x:c r="D10" s="41"/>
-      <x:c r="E10" s="41"/>
-      <x:c r="F10" s="41"/>
-      <x:c r="G10" s="41"/>
-      <x:c r="H10" s="41"/>
-      <x:c r="I10" s="41"/>
-      <x:c r="J10" s="41"/>
-      <x:c r="K10" s="41"/>
-      <x:c r="L10" s="41"/>
-      <x:c r="M10" s="41"/>
-      <x:c r="N10" s="41"/>
-      <x:c r="O10" s="41"/>
-      <x:c r="P10" s="41"/>
-      <x:c r="Q10" s="41"/>
-      <x:c r="R10" s="41"/>
-      <x:c r="S10" s="42"/>
+      <x:c r="B10" s="32"/>
+      <x:c r="C10" s="33"/>
+      <x:c r="D10" s="33"/>
+      <x:c r="E10" s="33"/>
+      <x:c r="F10" s="33"/>
+      <x:c r="G10" s="33"/>
+      <x:c r="H10" s="33"/>
+      <x:c r="I10" s="33"/>
+      <x:c r="J10" s="33"/>
+      <x:c r="K10" s="33"/>
+      <x:c r="L10" s="33"/>
+      <x:c r="M10" s="33"/>
+      <x:c r="N10" s="33"/>
+      <x:c r="O10" s="33"/>
+      <x:c r="P10" s="33"/>
+      <x:c r="Q10" s="33"/>
+      <x:c r="R10" s="33"/>
+      <x:c r="S10" s="34"/>
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75">
-      <x:c r="B11" s="47" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="48"/>
-      <x:c r="D11" s="49" t="s">
+      <x:c r="B11" s="39" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="40"/>
+      <x:c r="D11" s="41" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E11" s="40"/>
+      <x:c r="F11" s="35" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G11" s="42"/>
+      <x:c r="H11" s="35" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I11" s="42"/>
+      <x:c r="J11" s="35" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K11" s="42"/>
+      <x:c r="L11" s="35" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M11" s="42"/>
+      <x:c r="N11" s="35" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O11" s="36"/>
+      <x:c r="P11" s="37" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="Q11" s="36"/>
+      <x:c r="R11" s="35" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E11" s="48"/>
-      <x:c r="F11" s="43" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="43" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="43" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K11" s="50"/>
-      <x:c r="L11" s="43" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M11" s="50"/>
-      <x:c r="N11" s="43" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="O11" s="44"/>
-      <x:c r="P11" s="45" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="Q11" s="44"/>
-      <x:c r="R11" s="43" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="S11" s="46"/>
+      <x:c r="S11" s="38"/>
     </x:row>
     <x:row r="12" spans="2:19">
-      <x:c r="B12" s="51" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C12" s="52"/>
-      <x:c r="D12" s="51" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E12" s="52"/>
-      <x:c r="F12" s="63" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="G12" s="64"/>
-      <x:c r="H12" s="51" t="s">
+      <x:c r="B12" s="43" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C12" s="44"/>
+      <x:c r="D12" s="43" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="44"/>
+      <x:c r="F12" s="55" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I12" s="52"/>
-      <x:c r="J12" s="51" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="K12" s="52"/>
-      <x:c r="L12" s="51" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M12" s="26"/>
-      <x:c r="N12" s="26"/>
-      <x:c r="O12" s="26"/>
-      <x:c r="P12" s="26"/>
-      <x:c r="Q12" s="26"/>
-      <x:c r="R12" s="26"/>
-      <x:c r="S12" s="52"/>
+      <x:c r="G12" s="56"/>
+      <x:c r="H12" s="43" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I12" s="44"/>
+      <x:c r="J12" s="43" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K12" s="44"/>
+      <x:c r="L12" s="43" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="M12" s="18"/>
+      <x:c r="N12" s="18"/>
+      <x:c r="O12" s="18"/>
+      <x:c r="P12" s="18"/>
+      <x:c r="Q12" s="18"/>
+      <x:c r="R12" s="18"/>
+      <x:c r="S12" s="44"/>
     </x:row>
     <x:row r="13" spans="2:19">
-      <x:c r="B13" s="35"/>
-      <x:c r="C13" s="36"/>
-      <x:c r="D13" s="35"/>
-      <x:c r="E13" s="36"/>
-      <x:c r="F13" s="61"/>
-      <x:c r="G13" s="62"/>
-      <x:c r="H13" s="35"/>
-      <x:c r="I13" s="36"/>
-      <x:c r="J13" s="35"/>
-      <x:c r="K13" s="36"/>
-      <x:c r="L13" s="35"/>
-      <x:c r="M13" s="53"/>
-      <x:c r="N13" s="53"/>
-      <x:c r="O13" s="53"/>
-      <x:c r="P13" s="53"/>
-      <x:c r="Q13" s="53"/>
-      <x:c r="R13" s="53"/>
-      <x:c r="S13" s="36"/>
+      <x:c r="B13" s="27"/>
+      <x:c r="C13" s="28"/>
+      <x:c r="D13" s="27"/>
+      <x:c r="E13" s="28"/>
+      <x:c r="F13" s="53"/>
+      <x:c r="G13" s="54"/>
+      <x:c r="H13" s="27"/>
+      <x:c r="I13" s="28"/>
+      <x:c r="J13" s="27"/>
+      <x:c r="K13" s="28"/>
+      <x:c r="L13" s="27"/>
+      <x:c r="M13" s="45"/>
+      <x:c r="N13" s="45"/>
+      <x:c r="O13" s="45"/>
+      <x:c r="P13" s="45"/>
+      <x:c r="Q13" s="45"/>
+      <x:c r="R13" s="45"/>
+      <x:c r="S13" s="28"/>
     </x:row>
     <x:row r="14" spans="2:19">
-      <x:c r="B14" s="35" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C14" s="36"/>
-      <x:c r="D14" s="35" t="s">
+      <x:c r="B14" s="27" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="28"/>
+      <x:c r="D14" s="27" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E14" s="36"/>
-      <x:c r="F14" s="61"/>
-      <x:c r="G14" s="62"/>
-      <x:c r="H14" s="35"/>
-      <x:c r="I14" s="36"/>
-      <x:c r="J14" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K14" s="36"/>
-      <x:c r="L14" s="35"/>
-      <x:c r="M14" s="53"/>
-      <x:c r="N14" s="53"/>
-      <x:c r="O14" s="53"/>
-      <x:c r="P14" s="53"/>
-      <x:c r="Q14" s="53"/>
-      <x:c r="R14" s="53"/>
-      <x:c r="S14" s="36"/>
+      <x:c r="E14" s="28"/>
+      <x:c r="F14" s="53"/>
+      <x:c r="G14" s="54"/>
+      <x:c r="H14" s="27"/>
+      <x:c r="I14" s="28"/>
+      <x:c r="J14" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K14" s="28"/>
+      <x:c r="L14" s="27"/>
+      <x:c r="M14" s="45"/>
+      <x:c r="N14" s="45"/>
+      <x:c r="O14" s="45"/>
+      <x:c r="P14" s="45"/>
+      <x:c r="Q14" s="45"/>
+      <x:c r="R14" s="45"/>
+      <x:c r="S14" s="28"/>
     </x:row>
     <x:row r="15" spans="2:19">
-      <x:c r="B15" s="61" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C15" s="62"/>
-      <x:c r="D15" s="35"/>
-      <x:c r="E15" s="36"/>
-      <x:c r="F15" s="61"/>
-      <x:c r="G15" s="62"/>
-      <x:c r="H15" s="35"/>
-      <x:c r="I15" s="36"/>
-      <x:c r="J15" s="35"/>
-      <x:c r="K15" s="36"/>
-      <x:c r="L15" s="54" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M15" s="53"/>
-      <x:c r="N15" s="53"/>
-      <x:c r="O15" s="53"/>
-      <x:c r="P15" s="53"/>
-      <x:c r="Q15" s="53"/>
-      <x:c r="R15" s="53"/>
-      <x:c r="S15" s="36"/>
+      <x:c r="B15" s="53" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="54"/>
+      <x:c r="D15" s="27"/>
+      <x:c r="E15" s="28"/>
+      <x:c r="F15" s="53"/>
+      <x:c r="G15" s="54"/>
+      <x:c r="H15" s="27"/>
+      <x:c r="I15" s="28"/>
+      <x:c r="J15" s="27"/>
+      <x:c r="K15" s="28"/>
+      <x:c r="L15" s="46" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M15" s="45"/>
+      <x:c r="N15" s="45"/>
+      <x:c r="O15" s="45"/>
+      <x:c r="P15" s="45"/>
+      <x:c r="Q15" s="45"/>
+      <x:c r="R15" s="45"/>
+      <x:c r="S15" s="28"/>
     </x:row>
     <x:row r="16" spans="2:19">
-      <x:c r="B16" s="61" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C16" s="62"/>
-      <x:c r="D16" s="35"/>
-      <x:c r="E16" s="36"/>
-      <x:c r="F16" s="61" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G16" s="62"/>
-      <x:c r="H16" s="35"/>
-      <x:c r="I16" s="36"/>
-      <x:c r="J16" s="61" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K16" s="62"/>
-      <x:c r="L16" s="35"/>
-      <x:c r="M16" s="53"/>
-      <x:c r="N16" s="53"/>
-      <x:c r="O16" s="53"/>
-      <x:c r="P16" s="53"/>
-      <x:c r="Q16" s="53"/>
-      <x:c r="R16" s="53"/>
-      <x:c r="S16" s="36"/>
+      <x:c r="B16" s="53" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C16" s="54"/>
+      <x:c r="D16" s="27"/>
+      <x:c r="E16" s="28"/>
+      <x:c r="F16" s="53" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G16" s="54"/>
+      <x:c r="H16" s="27"/>
+      <x:c r="I16" s="28"/>
+      <x:c r="J16" s="53" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K16" s="54"/>
+      <x:c r="L16" s="27"/>
+      <x:c r="M16" s="45"/>
+      <x:c r="N16" s="45"/>
+      <x:c r="O16" s="45"/>
+      <x:c r="P16" s="45"/>
+      <x:c r="Q16" s="45"/>
+      <x:c r="R16" s="45"/>
+      <x:c r="S16" s="28"/>
     </x:row>
     <x:row r="17" spans="2:19">
-      <x:c r="B17" s="61" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C17" s="62"/>
+      <x:c r="B17" s="53" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C17" s="54"/>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="4"/>
-      <x:c r="F17" s="61" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G17" s="62"/>
+      <x:c r="F17" s="53" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G17" s="54"/>
       <x:c r="H17" s="3"/>
       <x:c r="I17" s="4"/>
       <x:c r="J17" s="3"/>
       <x:c r="K17" s="4"/>
-      <x:c r="L17" s="35"/>
-      <x:c r="M17" s="53"/>
-      <x:c r="N17" s="53"/>
-      <x:c r="O17" s="53"/>
-      <x:c r="P17" s="53"/>
-      <x:c r="Q17" s="53"/>
-      <x:c r="R17" s="53"/>
-      <x:c r="S17" s="36"/>
+      <x:c r="L17" s="27"/>
+      <x:c r="M17" s="45"/>
+      <x:c r="N17" s="45"/>
+      <x:c r="O17" s="45"/>
+      <x:c r="P17" s="45"/>
+      <x:c r="Q17" s="45"/>
+      <x:c r="R17" s="45"/>
+      <x:c r="S17" s="28"/>
     </x:row>
     <x:row r="18" spans="2:19">
       <x:c r="B18" s="3"/>
@@ -2471,14 +2920,14 @@
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="3"/>
       <x:c r="K18" s="4"/>
-      <x:c r="L18" s="35"/>
-      <x:c r="M18" s="53"/>
-      <x:c r="N18" s="53"/>
-      <x:c r="O18" s="53"/>
-      <x:c r="P18" s="53"/>
-      <x:c r="Q18" s="53"/>
-      <x:c r="R18" s="53"/>
-      <x:c r="S18" s="36"/>
+      <x:c r="L18" s="27"/>
+      <x:c r="M18" s="45"/>
+      <x:c r="N18" s="45"/>
+      <x:c r="O18" s="45"/>
+      <x:c r="P18" s="45"/>
+      <x:c r="Q18" s="45"/>
+      <x:c r="R18" s="45"/>
+      <x:c r="S18" s="28"/>
     </x:row>
     <x:row r="19" spans="2:19">
       <x:c r="B19" s="3"/>
@@ -2491,14 +2940,14 @@
       <x:c r="I19" s="4"/>
       <x:c r="J19" s="3"/>
       <x:c r="K19" s="4"/>
-      <x:c r="L19" s="35"/>
-      <x:c r="M19" s="53"/>
-      <x:c r="N19" s="53"/>
-      <x:c r="O19" s="53"/>
-      <x:c r="P19" s="53"/>
-      <x:c r="Q19" s="53"/>
-      <x:c r="R19" s="53"/>
-      <x:c r="S19" s="36"/>
+      <x:c r="L19" s="27"/>
+      <x:c r="M19" s="45"/>
+      <x:c r="N19" s="45"/>
+      <x:c r="O19" s="45"/>
+      <x:c r="P19" s="45"/>
+      <x:c r="Q19" s="45"/>
+      <x:c r="R19" s="45"/>
+      <x:c r="S19" s="28"/>
     </x:row>
     <x:row r="20" spans="2:19">
       <x:c r="B20" s="3"/>
@@ -2511,192 +2960,192 @@
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="3"/>
       <x:c r="K20" s="4"/>
-      <x:c r="L20" s="35"/>
-      <x:c r="M20" s="53"/>
-      <x:c r="N20" s="53"/>
-      <x:c r="O20" s="53"/>
-      <x:c r="P20" s="53"/>
-      <x:c r="Q20" s="53"/>
-      <x:c r="R20" s="53"/>
-      <x:c r="S20" s="36"/>
+      <x:c r="L20" s="27"/>
+      <x:c r="M20" s="45"/>
+      <x:c r="N20" s="45"/>
+      <x:c r="O20" s="45"/>
+      <x:c r="P20" s="45"/>
+      <x:c r="Q20" s="45"/>
+      <x:c r="R20" s="45"/>
+      <x:c r="S20" s="28"/>
     </x:row>
     <x:row r="21" spans="2:19">
-      <x:c r="B21" s="58" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C21" s="59"/>
-      <x:c r="D21" s="59"/>
-      <x:c r="E21" s="59"/>
-      <x:c r="F21" s="59"/>
-      <x:c r="G21" s="59"/>
-      <x:c r="H21" s="59"/>
-      <x:c r="I21" s="59"/>
-      <x:c r="J21" s="59"/>
-      <x:c r="K21" s="60"/>
-      <x:c r="L21" s="35"/>
-      <x:c r="M21" s="53"/>
-      <x:c r="N21" s="53"/>
-      <x:c r="O21" s="53"/>
-      <x:c r="P21" s="53"/>
-      <x:c r="Q21" s="53"/>
-      <x:c r="R21" s="53"/>
-      <x:c r="S21" s="36"/>
+      <x:c r="B21" s="50" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C21" s="51"/>
+      <x:c r="D21" s="51"/>
+      <x:c r="E21" s="51"/>
+      <x:c r="F21" s="51"/>
+      <x:c r="G21" s="51"/>
+      <x:c r="H21" s="51"/>
+      <x:c r="I21" s="51"/>
+      <x:c r="J21" s="51"/>
+      <x:c r="K21" s="52"/>
+      <x:c r="L21" s="27"/>
+      <x:c r="M21" s="45"/>
+      <x:c r="N21" s="45"/>
+      <x:c r="O21" s="45"/>
+      <x:c r="P21" s="45"/>
+      <x:c r="Q21" s="45"/>
+      <x:c r="R21" s="45"/>
+      <x:c r="S21" s="28"/>
     </x:row>
     <x:row r="22" spans="2:19">
-      <x:c r="B22" s="35"/>
-      <x:c r="C22" s="53"/>
-      <x:c r="D22" s="53"/>
-      <x:c r="E22" s="53"/>
-      <x:c r="F22" s="53"/>
-      <x:c r="G22" s="53"/>
-      <x:c r="H22" s="53"/>
-      <x:c r="I22" s="53"/>
-      <x:c r="J22" s="53"/>
-      <x:c r="K22" s="36"/>
-      <x:c r="L22" s="35"/>
-      <x:c r="M22" s="53"/>
-      <x:c r="N22" s="53"/>
-      <x:c r="O22" s="53"/>
-      <x:c r="P22" s="53"/>
-      <x:c r="Q22" s="53"/>
-      <x:c r="R22" s="53"/>
-      <x:c r="S22" s="36"/>
+      <x:c r="B22" s="27"/>
+      <x:c r="C22" s="45"/>
+      <x:c r="D22" s="45"/>
+      <x:c r="E22" s="45"/>
+      <x:c r="F22" s="45"/>
+      <x:c r="G22" s="45"/>
+      <x:c r="H22" s="45"/>
+      <x:c r="I22" s="45"/>
+      <x:c r="J22" s="45"/>
+      <x:c r="K22" s="28"/>
+      <x:c r="L22" s="27"/>
+      <x:c r="M22" s="45"/>
+      <x:c r="N22" s="45"/>
+      <x:c r="O22" s="45"/>
+      <x:c r="P22" s="45"/>
+      <x:c r="Q22" s="45"/>
+      <x:c r="R22" s="45"/>
+      <x:c r="S22" s="28"/>
     </x:row>
     <x:row r="23" spans="2:19">
-      <x:c r="B23" s="55"/>
-      <x:c r="C23" s="56"/>
-      <x:c r="D23" s="56"/>
-      <x:c r="E23" s="56"/>
-      <x:c r="F23" s="56"/>
-      <x:c r="G23" s="56"/>
-      <x:c r="H23" s="56"/>
-      <x:c r="I23" s="56"/>
-      <x:c r="J23" s="56"/>
-      <x:c r="K23" s="57"/>
-      <x:c r="L23" s="55"/>
-      <x:c r="M23" s="56"/>
-      <x:c r="N23" s="56"/>
-      <x:c r="O23" s="56"/>
-      <x:c r="P23" s="56"/>
-      <x:c r="Q23" s="56"/>
-      <x:c r="R23" s="56"/>
-      <x:c r="S23" s="57"/>
+      <x:c r="B23" s="47"/>
+      <x:c r="C23" s="48"/>
+      <x:c r="D23" s="48"/>
+      <x:c r="E23" s="48"/>
+      <x:c r="F23" s="48"/>
+      <x:c r="G23" s="48"/>
+      <x:c r="H23" s="48"/>
+      <x:c r="I23" s="48"/>
+      <x:c r="J23" s="48"/>
+      <x:c r="K23" s="49"/>
+      <x:c r="L23" s="47"/>
+      <x:c r="M23" s="48"/>
+      <x:c r="N23" s="48"/>
+      <x:c r="O23" s="48"/>
+      <x:c r="P23" s="48"/>
+      <x:c r="Q23" s="48"/>
+      <x:c r="R23" s="48"/>
+      <x:c r="S23" s="49"/>
     </x:row>
     <x:row r="26" spans="2:17">
-      <x:c r="B26" s="30" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C26" s="31"/>
-      <x:c r="D26" s="31"/>
-      <x:c r="E26" s="31"/>
-      <x:c r="F26" s="31"/>
-      <x:c r="G26" s="31"/>
-      <x:c r="H26" s="31"/>
-      <x:c r="I26" s="31"/>
-      <x:c r="J26" s="31"/>
-      <x:c r="K26" s="31"/>
-      <x:c r="L26" s="31"/>
-      <x:c r="M26" s="31"/>
-      <x:c r="N26" s="31"/>
-      <x:c r="O26" s="31"/>
-      <x:c r="P26" s="31"/>
-      <x:c r="Q26" s="32"/>
+      <x:c r="B26" s="22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C26" s="23"/>
+      <x:c r="D26" s="23"/>
+      <x:c r="E26" s="23"/>
+      <x:c r="F26" s="23"/>
+      <x:c r="G26" s="23"/>
+      <x:c r="H26" s="23"/>
+      <x:c r="I26" s="23"/>
+      <x:c r="J26" s="23"/>
+      <x:c r="K26" s="23"/>
+      <x:c r="L26" s="23"/>
+      <x:c r="M26" s="23"/>
+      <x:c r="N26" s="23"/>
+      <x:c r="O26" s="23"/>
+      <x:c r="P26" s="23"/>
+      <x:c r="Q26" s="24"/>
     </x:row>
     <x:row r="27" spans="2:17">
-      <x:c r="B27" s="33"/>
-      <x:c r="C27" s="20"/>
-      <x:c r="D27" s="20"/>
-      <x:c r="E27" s="20"/>
-      <x:c r="F27" s="20"/>
-      <x:c r="G27" s="20"/>
-      <x:c r="H27" s="20"/>
-      <x:c r="I27" s="20"/>
-      <x:c r="J27" s="20"/>
-      <x:c r="K27" s="20"/>
-      <x:c r="L27" s="20"/>
-      <x:c r="M27" s="20"/>
-      <x:c r="N27" s="20"/>
-      <x:c r="O27" s="20"/>
-      <x:c r="P27" s="20"/>
-      <x:c r="Q27" s="34"/>
+      <x:c r="B27" s="25"/>
+      <x:c r="C27" s="16"/>
+      <x:c r="D27" s="16"/>
+      <x:c r="E27" s="16"/>
+      <x:c r="F27" s="16"/>
+      <x:c r="G27" s="16"/>
+      <x:c r="H27" s="16"/>
+      <x:c r="I27" s="16"/>
+      <x:c r="J27" s="16"/>
+      <x:c r="K27" s="16"/>
+      <x:c r="L27" s="16"/>
+      <x:c r="M27" s="16"/>
+      <x:c r="N27" s="16"/>
+      <x:c r="O27" s="16"/>
+      <x:c r="P27" s="16"/>
+      <x:c r="Q27" s="26"/>
     </x:row>
     <x:row r="28" spans="2:17" ht="16.75">
-      <x:c r="B28" s="25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C28" s="29"/>
-      <x:c r="D28" s="25" t="s">
+      <x:c r="B28" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C28" s="21"/>
+      <x:c r="D28" s="17" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E28" s="29"/>
-      <x:c r="F28" s="25" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G28" s="29"/>
-      <x:c r="H28" s="25" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I28" s="29"/>
-      <x:c r="J28" s="25" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K28" s="29"/>
-      <x:c r="L28" s="25" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M28" s="29"/>
-      <x:c r="N28" s="25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O28" s="29"/>
-      <x:c r="P28" s="25" t="s">
+      <x:c r="E28" s="21"/>
+      <x:c r="F28" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G28" s="21"/>
+      <x:c r="H28" s="17" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I28" s="21"/>
+      <x:c r="J28" s="17" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="Q28" s="29"/>
+      <x:c r="K28" s="21"/>
+      <x:c r="L28" s="17" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M28" s="21"/>
+      <x:c r="N28" s="17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O28" s="21"/>
+      <x:c r="P28" s="17" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q28" s="21"/>
     </x:row>
-    <x:row r="29" spans="2:17">
-      <x:c r="B29" s="16" t="s">
+    <x:row r="29" spans="2:17" ht="16.75" customHeight="1">
+      <x:c r="B29" s="62" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C29" s="17"/>
-      <x:c r="D29" s="17"/>
-      <x:c r="E29" s="17"/>
-      <x:c r="F29" s="17"/>
-      <x:c r="G29" s="17"/>
-      <x:c r="H29" s="16" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I29" s="17"/>
-      <x:c r="J29" s="17"/>
-      <x:c r="K29" s="17"/>
-      <x:c r="L29" s="17"/>
-      <x:c r="M29" s="18"/>
-      <x:c r="N29" s="16" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="O29" s="17"/>
-      <x:c r="P29" s="16" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="Q29" s="18"/>
+      <x:c r="C29" s="63"/>
+      <x:c r="D29" s="63"/>
+      <x:c r="E29" s="63"/>
+      <x:c r="F29" s="68" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G29" s="66"/>
+      <x:c r="H29" s="66"/>
+      <x:c r="I29" s="66"/>
+      <x:c r="J29" s="69" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K29" s="69"/>
+      <x:c r="L29" s="69"/>
+      <x:c r="M29" s="70"/>
+      <x:c r="N29" s="78" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O29" s="73"/>
+      <x:c r="P29" s="73"/>
+      <x:c r="Q29" s="74"/>
     </x:row>
     <x:row r="30" spans="2:17">
-      <x:c r="B30" s="19"/>
-      <x:c r="C30" s="20"/>
-      <x:c r="D30" s="20"/>
-      <x:c r="E30" s="20"/>
-      <x:c r="F30" s="20"/>
-      <x:c r="G30" s="20"/>
-      <x:c r="H30" s="19"/>
-      <x:c r="I30" s="20"/>
-      <x:c r="J30" s="20"/>
-      <x:c r="K30" s="20"/>
-      <x:c r="L30" s="20"/>
-      <x:c r="M30" s="21"/>
-      <x:c r="N30" s="19"/>
-      <x:c r="O30" s="20"/>
-      <x:c r="P30" s="19"/>
-      <x:c r="Q30" s="21"/>
+      <x:c r="B30" s="64"/>
+      <x:c r="C30" s="65"/>
+      <x:c r="D30" s="65"/>
+      <x:c r="E30" s="65"/>
+      <x:c r="F30" s="67"/>
+      <x:c r="G30" s="67"/>
+      <x:c r="H30" s="67"/>
+      <x:c r="I30" s="67"/>
+      <x:c r="J30" s="71"/>
+      <x:c r="K30" s="71"/>
+      <x:c r="L30" s="71"/>
+      <x:c r="M30" s="72"/>
+      <x:c r="N30" s="75"/>
+      <x:c r="O30" s="76"/>
+      <x:c r="P30" s="76"/>
+      <x:c r="Q30" s="77"/>
     </x:row>
     <x:row r="31" spans="2:17" ht="16.75">
       <x:c r="B31" s="5"/>
@@ -2705,18 +3154,16 @@
       <x:c r="E31" s="8"/>
       <x:c r="F31" s="8"/>
       <x:c r="G31" s="8"/>
-      <x:c r="H31" s="22"/>
-      <x:c r="I31" s="23"/>
-      <x:c r="J31" s="23"/>
-      <x:c r="K31" s="23"/>
-      <x:c r="L31" s="23"/>
-      <x:c r="M31" s="24"/>
+      <x:c r="H31" s="57"/>
+      <x:c r="I31" s="58"/>
+      <x:c r="J31" s="58"/>
+      <x:c r="K31" s="58"/>
+      <x:c r="L31" s="58"/>
+      <x:c r="M31" s="59"/>
       <x:c r="N31" s="14"/>
       <x:c r="O31" s="12"/>
-      <x:c r="P31" s="19" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Q31" s="21"/>
+      <x:c r="P31" s="60"/>
+      <x:c r="Q31" s="61"/>
     </x:row>
     <x:row r="32" spans="2:17">
       <x:c r="B32" s="6"/>
@@ -2733,8 +3180,8 @@
       <x:c r="M32" s="9"/>
       <x:c r="N32" s="10"/>
       <x:c r="O32" s="10"/>
-      <x:c r="P32" s="22"/>
-      <x:c r="Q32" s="24"/>
+      <x:c r="P32" s="57"/>
+      <x:c r="Q32" s="59"/>
     </x:row>
     <x:row r="33" spans="2:17">
       <x:c r="B33" s="6"/>
@@ -2791,81 +3238,77 @@
       <x:c r="Q35" s="13"/>
     </x:row>
     <x:row r="36" spans="2:13" ht="17.149999999999999">
-      <x:c r="B36" s="25" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C36" s="26"/>
-      <x:c r="D36" s="26" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E36" s="26"/>
-      <x:c r="F36" s="26" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G36" s="26"/>
-      <x:c r="H36" s="26" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I36" s="26"/>
-      <x:c r="J36" s="27" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K36" s="27"/>
-      <x:c r="L36" s="28"/>
-      <x:c r="M36" s="20"/>
+      <x:c r="B36" s="17" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C36" s="18"/>
+      <x:c r="D36" s="18" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E36" s="18"/>
+      <x:c r="F36" s="18" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G36" s="18"/>
+      <x:c r="H36" s="18" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I36" s="18"/>
+      <x:c r="J36" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K36" s="19"/>
+      <x:c r="L36" s="20"/>
+      <x:c r="M36" s="16"/>
     </x:row>
-    <x:row r="37" spans="2:13">
-      <x:c r="B37" s="16" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C37" s="17"/>
-      <x:c r="D37" s="17"/>
-      <x:c r="E37" s="18"/>
-      <x:c r="F37" s="16" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G37" s="17"/>
-      <x:c r="H37" s="17"/>
-      <x:c r="I37" s="18"/>
-      <x:c r="J37" s="20" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K37" s="20"/>
+    <x:row r="37" spans="2:13" ht="16.75" customHeight="1">
+      <x:c r="B37" s="87" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C37" s="79"/>
+      <x:c r="D37" s="79"/>
+      <x:c r="E37" s="80"/>
+      <x:c r="F37" s="89" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G37" s="90"/>
+      <x:c r="H37" s="95" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I37" s="88"/>
+      <x:c r="J37" s="88"/>
+      <x:c r="K37" s="88"/>
       <x:c r="L37" s="3"/>
       <x:c r="M37" s="10"/>
     </x:row>
     <x:row r="38" spans="2:13">
-      <x:c r="B38" s="19"/>
-      <x:c r="C38" s="20"/>
-      <x:c r="D38" s="20"/>
-      <x:c r="E38" s="21"/>
-      <x:c r="F38" s="19"/>
-      <x:c r="G38" s="20"/>
-      <x:c r="H38" s="20"/>
-      <x:c r="I38" s="21"/>
-      <x:c r="J38" s="23"/>
-      <x:c r="K38" s="23"/>
+      <x:c r="B38" s="81"/>
+      <x:c r="C38" s="82"/>
+      <x:c r="D38" s="82"/>
+      <x:c r="E38" s="83"/>
+      <x:c r="F38" s="91"/>
+      <x:c r="G38" s="92"/>
+      <x:c r="H38" s="88"/>
+      <x:c r="I38" s="88"/>
+      <x:c r="J38" s="88"/>
+      <x:c r="K38" s="88"/>
       <x:c r="L38" s="3"/>
       <x:c r="M38" s="10"/>
     </x:row>
-    <x:row r="39" spans="2:9">
-      <x:c r="B39" s="22"/>
-      <x:c r="C39" s="23"/>
-      <x:c r="D39" s="23"/>
-      <x:c r="E39" s="24"/>
-      <x:c r="F39" s="22"/>
-      <x:c r="G39" s="23"/>
-      <x:c r="H39" s="23"/>
-      <x:c r="I39" s="24"/>
+    <x:row r="39" spans="2:11">
+      <x:c r="B39" s="84"/>
+      <x:c r="C39" s="85"/>
+      <x:c r="D39" s="85"/>
+      <x:c r="E39" s="86"/>
+      <x:c r="F39" s="93"/>
+      <x:c r="G39" s="94"/>
+      <x:c r="H39" s="88"/>
+      <x:c r="I39" s="88"/>
+      <x:c r="J39" s="88"/>
+      <x:c r="K39" s="88"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="55">
-    <x:mergeCell ref="B37:E39"/>
-    <x:mergeCell ref="F37:I39"/>
-    <x:mergeCell ref="J37:K38"/>
-    <x:mergeCell ref="P29:Q30"/>
-    <x:mergeCell ref="P31:Q32"/>
-    <x:mergeCell ref="H31:M31"/>
+  <x:mergeCells count="53">
     <x:mergeCell ref="B36:C36"/>
     <x:mergeCell ref="D36:E36"/>
     <x:mergeCell ref="F36:G36"/>
@@ -2876,9 +3319,6 @@
     <x:mergeCell ref="P28:Q28"/>
     <x:mergeCell ref="L28:M28"/>
     <x:mergeCell ref="B26:Q27"/>
-    <x:mergeCell ref="N29:O30"/>
-    <x:mergeCell ref="B29:G30"/>
-    <x:mergeCell ref="H29:M30"/>
     <x:mergeCell ref="B28:C28"/>
     <x:mergeCell ref="D28:E28"/>
     <x:mergeCell ref="F28:G28"/>
@@ -2915,6 +3355,13 @@
     <x:mergeCell ref="F17:G17"/>
     <x:mergeCell ref="F12:G15"/>
     <x:mergeCell ref="J16:K16"/>
+    <x:mergeCell ref="B29:E30"/>
+    <x:mergeCell ref="F29:I30"/>
+    <x:mergeCell ref="J29:M30"/>
+    <x:mergeCell ref="N29:Q30"/>
+    <x:mergeCell ref="B37:E39"/>
+    <x:mergeCell ref="H37:K39"/>
+    <x:mergeCell ref="F37:G39"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
+++ b/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
@@ -19,10 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <x:si>
-    <x:t xml:space="preserve"> 근거리 스킬1
-(메쉬절단)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <x:si>
+    <x:t>(인터페이스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학기중 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(컴포지션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(델리게이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ai 시스템 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방학 기간 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유데미 강의 공부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로코모션,공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월드생성 코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 스킬1 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 스킬2 개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼 엔진 c++</x:t>
   </x:si>
   <x:si>
     <x:t>엔진 내부 구조에 친숙해지기 핵심 5개 클래스(UObject
@@ -32,145 +130,53 @@
 Character)</x:t>
   </x:si>
   <x:si>
+    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근거리 스킬2
+(시간 되돌리기)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발한것들
+합쳐서 게임형식으로 마무리 하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 근거리 스킬1
+(메쉬절단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존 계획에서 못한것들 보충</x:t>
+  </x:si>
+  <x:si>
     <x:t>엔진 초기화 소스코드 분석</x:t>
   </x:si>
   <x:si>
+    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 날때 블렌더 공부하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간 날때 블렌더 공부하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(엔진 오브젝트 리플렉션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(인터페이스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학기중 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(컴포지션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(델리게이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 3주차</x:t>
   </x:si>
   <x:si>
     <x:t>탈것 개발
 (로봇(?))</x:t>
   </x:si>
   <x:si>
-    <x:t>기존 계획에서 못한것들 보충</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로코모션,공격 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ai 시스템 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 c++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유데미 강의 공부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월드생성 코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방학 기간 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발한것들
-합쳐서 게임형식으로 마무리 하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 스킬1 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 스킬2 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근거리 스킬2
-(시간 되돌리기)</x:t>
+    <x:t>게임 기본적인 부분들은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가능하게 완성하기</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -933,6 +939,123 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -940,58 +1063,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1466,71 +1537,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1577,32 +1583,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1622,6 +1602,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1668,71 +1674,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1752,104 +1693,65 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1869,91 +1771,104 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1968,6 +1883,97 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2663,8 +2669,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A9:S39"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N40" activeCellId="0" sqref="N40:N40"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A25" activeCellId="0" sqref="A25:A25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2677,237 +2683,237 @@
   </x:cols>
   <x:sheetData>
     <x:row r="9" spans="2:19">
-      <x:c r="B9" s="29" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="30"/>
-      <x:c r="D9" s="30"/>
-      <x:c r="E9" s="30"/>
-      <x:c r="F9" s="30"/>
-      <x:c r="G9" s="30"/>
-      <x:c r="H9" s="30"/>
-      <x:c r="I9" s="30"/>
-      <x:c r="J9" s="30"/>
-      <x:c r="K9" s="30"/>
-      <x:c r="L9" s="30"/>
-      <x:c r="M9" s="30"/>
-      <x:c r="N9" s="30"/>
-      <x:c r="O9" s="30"/>
-      <x:c r="P9" s="30"/>
-      <x:c r="Q9" s="30"/>
-      <x:c r="R9" s="30"/>
-      <x:c r="S9" s="31"/>
+      <x:c r="B9" s="34" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C9" s="35"/>
+      <x:c r="D9" s="35"/>
+      <x:c r="E9" s="35"/>
+      <x:c r="F9" s="35"/>
+      <x:c r="G9" s="35"/>
+      <x:c r="H9" s="35"/>
+      <x:c r="I9" s="35"/>
+      <x:c r="J9" s="35"/>
+      <x:c r="K9" s="35"/>
+      <x:c r="L9" s="35"/>
+      <x:c r="M9" s="35"/>
+      <x:c r="N9" s="35"/>
+      <x:c r="O9" s="35"/>
+      <x:c r="P9" s="35"/>
+      <x:c r="Q9" s="35"/>
+      <x:c r="R9" s="35"/>
+      <x:c r="S9" s="36"/>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="2"/>
-      <x:c r="B10" s="32"/>
-      <x:c r="C10" s="33"/>
-      <x:c r="D10" s="33"/>
-      <x:c r="E10" s="33"/>
-      <x:c r="F10" s="33"/>
-      <x:c r="G10" s="33"/>
-      <x:c r="H10" s="33"/>
-      <x:c r="I10" s="33"/>
-      <x:c r="J10" s="33"/>
-      <x:c r="K10" s="33"/>
-      <x:c r="L10" s="33"/>
-      <x:c r="M10" s="33"/>
-      <x:c r="N10" s="33"/>
-      <x:c r="O10" s="33"/>
-      <x:c r="P10" s="33"/>
-      <x:c r="Q10" s="33"/>
-      <x:c r="R10" s="33"/>
-      <x:c r="S10" s="34"/>
+      <x:c r="B10" s="37"/>
+      <x:c r="C10" s="38"/>
+      <x:c r="D10" s="38"/>
+      <x:c r="E10" s="38"/>
+      <x:c r="F10" s="38"/>
+      <x:c r="G10" s="38"/>
+      <x:c r="H10" s="38"/>
+      <x:c r="I10" s="38"/>
+      <x:c r="J10" s="38"/>
+      <x:c r="K10" s="38"/>
+      <x:c r="L10" s="38"/>
+      <x:c r="M10" s="38"/>
+      <x:c r="N10" s="38"/>
+      <x:c r="O10" s="38"/>
+      <x:c r="P10" s="38"/>
+      <x:c r="Q10" s="38"/>
+      <x:c r="R10" s="38"/>
+      <x:c r="S10" s="39"/>
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75">
-      <x:c r="B11" s="39" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="40"/>
-      <x:c r="D11" s="41" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E11" s="40"/>
-      <x:c r="F11" s="35" t="s">
+      <x:c r="B11" s="44" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C11" s="45"/>
+      <x:c r="D11" s="46" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="45"/>
+      <x:c r="F11" s="40" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G11" s="47"/>
+      <x:c r="H11" s="40" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I11" s="47"/>
+      <x:c r="J11" s="40" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K11" s="47"/>
+      <x:c r="L11" s="40" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G11" s="42"/>
-      <x:c r="H11" s="35" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I11" s="42"/>
-      <x:c r="J11" s="35" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K11" s="42"/>
-      <x:c r="L11" s="35" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M11" s="42"/>
-      <x:c r="N11" s="35" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O11" s="36"/>
-      <x:c r="P11" s="37" t="s">
+      <x:c r="M11" s="47"/>
+      <x:c r="N11" s="40" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O11" s="41"/>
+      <x:c r="P11" s="42" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q11" s="41"/>
+      <x:c r="R11" s="40" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="Q11" s="36"/>
-      <x:c r="R11" s="35" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="S11" s="38"/>
+      <x:c r="S11" s="43"/>
     </x:row>
     <x:row r="12" spans="2:19">
-      <x:c r="B12" s="43" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C12" s="44"/>
-      <x:c r="D12" s="43" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="44"/>
-      <x:c r="F12" s="55" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G12" s="56"/>
-      <x:c r="H12" s="43" t="s">
+      <x:c r="B12" s="48" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="49"/>
+      <x:c r="D12" s="48" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="49"/>
+      <x:c r="F12" s="60" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G12" s="61"/>
+      <x:c r="H12" s="48" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I12" s="49"/>
+      <x:c r="J12" s="48" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K12" s="49"/>
+      <x:c r="L12" s="48" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I12" s="44"/>
-      <x:c r="J12" s="43" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="K12" s="44"/>
-      <x:c r="L12" s="43" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="M12" s="18"/>
-      <x:c r="N12" s="18"/>
-      <x:c r="O12" s="18"/>
-      <x:c r="P12" s="18"/>
-      <x:c r="Q12" s="18"/>
-      <x:c r="R12" s="18"/>
-      <x:c r="S12" s="44"/>
+      <x:c r="M12" s="22"/>
+      <x:c r="N12" s="22"/>
+      <x:c r="O12" s="22"/>
+      <x:c r="P12" s="22"/>
+      <x:c r="Q12" s="22"/>
+      <x:c r="R12" s="22"/>
+      <x:c r="S12" s="49"/>
     </x:row>
     <x:row r="13" spans="2:19">
-      <x:c r="B13" s="27"/>
-      <x:c r="C13" s="28"/>
-      <x:c r="D13" s="27"/>
-      <x:c r="E13" s="28"/>
-      <x:c r="F13" s="53"/>
-      <x:c r="G13" s="54"/>
-      <x:c r="H13" s="27"/>
-      <x:c r="I13" s="28"/>
-      <x:c r="J13" s="27"/>
-      <x:c r="K13" s="28"/>
-      <x:c r="L13" s="27"/>
-      <x:c r="M13" s="45"/>
-      <x:c r="N13" s="45"/>
-      <x:c r="O13" s="45"/>
-      <x:c r="P13" s="45"/>
-      <x:c r="Q13" s="45"/>
-      <x:c r="R13" s="45"/>
-      <x:c r="S13" s="28"/>
+      <x:c r="B13" s="32"/>
+      <x:c r="C13" s="33"/>
+      <x:c r="D13" s="32"/>
+      <x:c r="E13" s="33"/>
+      <x:c r="F13" s="58"/>
+      <x:c r="G13" s="59"/>
+      <x:c r="H13" s="32"/>
+      <x:c r="I13" s="33"/>
+      <x:c r="J13" s="32"/>
+      <x:c r="K13" s="33"/>
+      <x:c r="L13" s="32"/>
+      <x:c r="M13" s="50"/>
+      <x:c r="N13" s="50"/>
+      <x:c r="O13" s="50"/>
+      <x:c r="P13" s="50"/>
+      <x:c r="Q13" s="50"/>
+      <x:c r="R13" s="50"/>
+      <x:c r="S13" s="33"/>
     </x:row>
     <x:row r="14" spans="2:19">
-      <x:c r="B14" s="27" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C14" s="28"/>
-      <x:c r="D14" s="27" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E14" s="28"/>
-      <x:c r="F14" s="53"/>
-      <x:c r="G14" s="54"/>
-      <x:c r="H14" s="27"/>
-      <x:c r="I14" s="28"/>
-      <x:c r="J14" s="27" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K14" s="28"/>
-      <x:c r="L14" s="27"/>
-      <x:c r="M14" s="45"/>
-      <x:c r="N14" s="45"/>
-      <x:c r="O14" s="45"/>
-      <x:c r="P14" s="45"/>
-      <x:c r="Q14" s="45"/>
-      <x:c r="R14" s="45"/>
-      <x:c r="S14" s="28"/>
+      <x:c r="B14" s="32" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C14" s="33"/>
+      <x:c r="D14" s="32" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E14" s="33"/>
+      <x:c r="F14" s="58"/>
+      <x:c r="G14" s="59"/>
+      <x:c r="H14" s="32"/>
+      <x:c r="I14" s="33"/>
+      <x:c r="J14" s="32" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K14" s="33"/>
+      <x:c r="L14" s="32"/>
+      <x:c r="M14" s="50"/>
+      <x:c r="N14" s="50"/>
+      <x:c r="O14" s="50"/>
+      <x:c r="P14" s="50"/>
+      <x:c r="Q14" s="50"/>
+      <x:c r="R14" s="50"/>
+      <x:c r="S14" s="33"/>
     </x:row>
     <x:row r="15" spans="2:19">
-      <x:c r="B15" s="53" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C15" s="54"/>
-      <x:c r="D15" s="27"/>
-      <x:c r="E15" s="28"/>
-      <x:c r="F15" s="53"/>
-      <x:c r="G15" s="54"/>
-      <x:c r="H15" s="27"/>
-      <x:c r="I15" s="28"/>
-      <x:c r="J15" s="27"/>
-      <x:c r="K15" s="28"/>
-      <x:c r="L15" s="46" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M15" s="45"/>
-      <x:c r="N15" s="45"/>
-      <x:c r="O15" s="45"/>
-      <x:c r="P15" s="45"/>
-      <x:c r="Q15" s="45"/>
-      <x:c r="R15" s="45"/>
-      <x:c r="S15" s="28"/>
+      <x:c r="B15" s="58" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C15" s="59"/>
+      <x:c r="D15" s="32"/>
+      <x:c r="E15" s="33"/>
+      <x:c r="F15" s="58"/>
+      <x:c r="G15" s="59"/>
+      <x:c r="H15" s="32"/>
+      <x:c r="I15" s="33"/>
+      <x:c r="J15" s="32"/>
+      <x:c r="K15" s="33"/>
+      <x:c r="L15" s="51" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M15" s="50"/>
+      <x:c r="N15" s="50"/>
+      <x:c r="O15" s="50"/>
+      <x:c r="P15" s="50"/>
+      <x:c r="Q15" s="50"/>
+      <x:c r="R15" s="50"/>
+      <x:c r="S15" s="33"/>
     </x:row>
     <x:row r="16" spans="2:19">
-      <x:c r="B16" s="53" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C16" s="54"/>
-      <x:c r="D16" s="27"/>
-      <x:c r="E16" s="28"/>
-      <x:c r="F16" s="53" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G16" s="54"/>
-      <x:c r="H16" s="27"/>
-      <x:c r="I16" s="28"/>
-      <x:c r="J16" s="53" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K16" s="54"/>
-      <x:c r="L16" s="27"/>
-      <x:c r="M16" s="45"/>
-      <x:c r="N16" s="45"/>
-      <x:c r="O16" s="45"/>
-      <x:c r="P16" s="45"/>
-      <x:c r="Q16" s="45"/>
-      <x:c r="R16" s="45"/>
-      <x:c r="S16" s="28"/>
+      <x:c r="B16" s="58" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="59"/>
+      <x:c r="D16" s="32"/>
+      <x:c r="E16" s="33"/>
+      <x:c r="F16" s="58" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G16" s="59"/>
+      <x:c r="H16" s="32"/>
+      <x:c r="I16" s="33"/>
+      <x:c r="J16" s="58" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K16" s="59"/>
+      <x:c r="L16" s="32"/>
+      <x:c r="M16" s="50"/>
+      <x:c r="N16" s="50"/>
+      <x:c r="O16" s="50"/>
+      <x:c r="P16" s="50"/>
+      <x:c r="Q16" s="50"/>
+      <x:c r="R16" s="50"/>
+      <x:c r="S16" s="33"/>
     </x:row>
     <x:row r="17" spans="2:19">
-      <x:c r="B17" s="53" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C17" s="54"/>
+      <x:c r="B17" s="58" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C17" s="59"/>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="4"/>
-      <x:c r="F17" s="53" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G17" s="54"/>
+      <x:c r="F17" s="58" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G17" s="59"/>
       <x:c r="H17" s="3"/>
       <x:c r="I17" s="4"/>
       <x:c r="J17" s="3"/>
       <x:c r="K17" s="4"/>
-      <x:c r="L17" s="27"/>
-      <x:c r="M17" s="45"/>
-      <x:c r="N17" s="45"/>
-      <x:c r="O17" s="45"/>
-      <x:c r="P17" s="45"/>
-      <x:c r="Q17" s="45"/>
-      <x:c r="R17" s="45"/>
-      <x:c r="S17" s="28"/>
+      <x:c r="L17" s="32"/>
+      <x:c r="M17" s="50"/>
+      <x:c r="N17" s="50"/>
+      <x:c r="O17" s="50"/>
+      <x:c r="P17" s="50"/>
+      <x:c r="Q17" s="50"/>
+      <x:c r="R17" s="50"/>
+      <x:c r="S17" s="33"/>
     </x:row>
     <x:row r="18" spans="2:19">
       <x:c r="B18" s="3"/>
@@ -2920,14 +2926,14 @@
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="3"/>
       <x:c r="K18" s="4"/>
-      <x:c r="L18" s="27"/>
-      <x:c r="M18" s="45"/>
-      <x:c r="N18" s="45"/>
-      <x:c r="O18" s="45"/>
-      <x:c r="P18" s="45"/>
-      <x:c r="Q18" s="45"/>
-      <x:c r="R18" s="45"/>
-      <x:c r="S18" s="28"/>
+      <x:c r="L18" s="32"/>
+      <x:c r="M18" s="50"/>
+      <x:c r="N18" s="50"/>
+      <x:c r="O18" s="50"/>
+      <x:c r="P18" s="50"/>
+      <x:c r="Q18" s="50"/>
+      <x:c r="R18" s="50"/>
+      <x:c r="S18" s="33"/>
     </x:row>
     <x:row r="19" spans="2:19">
       <x:c r="B19" s="3"/>
@@ -2940,14 +2946,14 @@
       <x:c r="I19" s="4"/>
       <x:c r="J19" s="3"/>
       <x:c r="K19" s="4"/>
-      <x:c r="L19" s="27"/>
-      <x:c r="M19" s="45"/>
-      <x:c r="N19" s="45"/>
-      <x:c r="O19" s="45"/>
-      <x:c r="P19" s="45"/>
-      <x:c r="Q19" s="45"/>
-      <x:c r="R19" s="45"/>
-      <x:c r="S19" s="28"/>
+      <x:c r="L19" s="32"/>
+      <x:c r="M19" s="50"/>
+      <x:c r="N19" s="50"/>
+      <x:c r="O19" s="50"/>
+      <x:c r="P19" s="50"/>
+      <x:c r="Q19" s="50"/>
+      <x:c r="R19" s="50"/>
+      <x:c r="S19" s="33"/>
     </x:row>
     <x:row r="20" spans="2:19">
       <x:c r="B20" s="3"/>
@@ -2960,192 +2966,196 @@
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="3"/>
       <x:c r="K20" s="4"/>
-      <x:c r="L20" s="27"/>
-      <x:c r="M20" s="45"/>
-      <x:c r="N20" s="45"/>
-      <x:c r="O20" s="45"/>
-      <x:c r="P20" s="45"/>
-      <x:c r="Q20" s="45"/>
-      <x:c r="R20" s="45"/>
-      <x:c r="S20" s="28"/>
+      <x:c r="L20" s="32"/>
+      <x:c r="M20" s="50"/>
+      <x:c r="N20" s="50"/>
+      <x:c r="O20" s="50"/>
+      <x:c r="P20" s="50"/>
+      <x:c r="Q20" s="50"/>
+      <x:c r="R20" s="50"/>
+      <x:c r="S20" s="33"/>
     </x:row>
     <x:row r="21" spans="2:19">
-      <x:c r="B21" s="50" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C21" s="51"/>
-      <x:c r="D21" s="51"/>
-      <x:c r="E21" s="51"/>
-      <x:c r="F21" s="51"/>
-      <x:c r="G21" s="51"/>
-      <x:c r="H21" s="51"/>
-      <x:c r="I21" s="51"/>
-      <x:c r="J21" s="51"/>
-      <x:c r="K21" s="52"/>
-      <x:c r="L21" s="27"/>
-      <x:c r="M21" s="45"/>
-      <x:c r="N21" s="45"/>
-      <x:c r="O21" s="45"/>
-      <x:c r="P21" s="45"/>
-      <x:c r="Q21" s="45"/>
-      <x:c r="R21" s="45"/>
-      <x:c r="S21" s="28"/>
+      <x:c r="B21" s="55" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C21" s="56"/>
+      <x:c r="D21" s="56"/>
+      <x:c r="E21" s="56"/>
+      <x:c r="F21" s="56"/>
+      <x:c r="G21" s="56"/>
+      <x:c r="H21" s="56"/>
+      <x:c r="I21" s="56"/>
+      <x:c r="J21" s="56"/>
+      <x:c r="K21" s="57"/>
+      <x:c r="L21" s="32"/>
+      <x:c r="M21" s="50"/>
+      <x:c r="N21" s="50"/>
+      <x:c r="O21" s="50"/>
+      <x:c r="P21" s="50"/>
+      <x:c r="Q21" s="50"/>
+      <x:c r="R21" s="50"/>
+      <x:c r="S21" s="33"/>
     </x:row>
     <x:row r="22" spans="2:19">
-      <x:c r="B22" s="27"/>
-      <x:c r="C22" s="45"/>
-      <x:c r="D22" s="45"/>
-      <x:c r="E22" s="45"/>
-      <x:c r="F22" s="45"/>
-      <x:c r="G22" s="45"/>
-      <x:c r="H22" s="45"/>
-      <x:c r="I22" s="45"/>
-      <x:c r="J22" s="45"/>
-      <x:c r="K22" s="28"/>
-      <x:c r="L22" s="27"/>
-      <x:c r="M22" s="45"/>
-      <x:c r="N22" s="45"/>
-      <x:c r="O22" s="45"/>
-      <x:c r="P22" s="45"/>
-      <x:c r="Q22" s="45"/>
-      <x:c r="R22" s="45"/>
-      <x:c r="S22" s="28"/>
+      <x:c r="B22" s="32"/>
+      <x:c r="C22" s="50"/>
+      <x:c r="D22" s="50"/>
+      <x:c r="E22" s="50"/>
+      <x:c r="F22" s="50"/>
+      <x:c r="G22" s="50"/>
+      <x:c r="H22" s="50"/>
+      <x:c r="I22" s="50"/>
+      <x:c r="J22" s="50"/>
+      <x:c r="K22" s="33"/>
+      <x:c r="L22" s="32"/>
+      <x:c r="M22" s="50"/>
+      <x:c r="N22" s="50"/>
+      <x:c r="O22" s="50"/>
+      <x:c r="P22" s="50"/>
+      <x:c r="Q22" s="50"/>
+      <x:c r="R22" s="50"/>
+      <x:c r="S22" s="33"/>
     </x:row>
     <x:row r="23" spans="2:19">
-      <x:c r="B23" s="47"/>
-      <x:c r="C23" s="48"/>
-      <x:c r="D23" s="48"/>
-      <x:c r="E23" s="48"/>
-      <x:c r="F23" s="48"/>
-      <x:c r="G23" s="48"/>
-      <x:c r="H23" s="48"/>
-      <x:c r="I23" s="48"/>
-      <x:c r="J23" s="48"/>
-      <x:c r="K23" s="49"/>
-      <x:c r="L23" s="47"/>
-      <x:c r="M23" s="48"/>
-      <x:c r="N23" s="48"/>
-      <x:c r="O23" s="48"/>
-      <x:c r="P23" s="48"/>
-      <x:c r="Q23" s="48"/>
-      <x:c r="R23" s="48"/>
-      <x:c r="S23" s="49"/>
+      <x:c r="B23" s="52"/>
+      <x:c r="C23" s="53"/>
+      <x:c r="D23" s="53"/>
+      <x:c r="E23" s="53"/>
+      <x:c r="F23" s="53"/>
+      <x:c r="G23" s="53"/>
+      <x:c r="H23" s="53"/>
+      <x:c r="I23" s="53"/>
+      <x:c r="J23" s="53"/>
+      <x:c r="K23" s="54"/>
+      <x:c r="L23" s="52"/>
+      <x:c r="M23" s="53"/>
+      <x:c r="N23" s="53"/>
+      <x:c r="O23" s="53"/>
+      <x:c r="P23" s="53"/>
+      <x:c r="Q23" s="53"/>
+      <x:c r="R23" s="53"/>
+      <x:c r="S23" s="54"/>
     </x:row>
     <x:row r="26" spans="2:17">
-      <x:c r="B26" s="22" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C26" s="23"/>
-      <x:c r="D26" s="23"/>
-      <x:c r="E26" s="23"/>
-      <x:c r="F26" s="23"/>
-      <x:c r="G26" s="23"/>
-      <x:c r="H26" s="23"/>
-      <x:c r="I26" s="23"/>
-      <x:c r="J26" s="23"/>
-      <x:c r="K26" s="23"/>
-      <x:c r="L26" s="23"/>
-      <x:c r="M26" s="23"/>
-      <x:c r="N26" s="23"/>
-      <x:c r="O26" s="23"/>
-      <x:c r="P26" s="23"/>
-      <x:c r="Q26" s="24"/>
+      <x:c r="B26" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C26" s="28"/>
+      <x:c r="D26" s="28"/>
+      <x:c r="E26" s="28"/>
+      <x:c r="F26" s="28"/>
+      <x:c r="G26" s="28"/>
+      <x:c r="H26" s="28"/>
+      <x:c r="I26" s="28"/>
+      <x:c r="J26" s="28"/>
+      <x:c r="K26" s="28"/>
+      <x:c r="L26" s="28"/>
+      <x:c r="M26" s="28"/>
+      <x:c r="N26" s="28"/>
+      <x:c r="O26" s="28"/>
+      <x:c r="P26" s="28"/>
+      <x:c r="Q26" s="29"/>
     </x:row>
     <x:row r="27" spans="2:17">
-      <x:c r="B27" s="25"/>
-      <x:c r="C27" s="16"/>
-      <x:c r="D27" s="16"/>
-      <x:c r="E27" s="16"/>
-      <x:c r="F27" s="16"/>
-      <x:c r="G27" s="16"/>
-      <x:c r="H27" s="16"/>
-      <x:c r="I27" s="16"/>
-      <x:c r="J27" s="16"/>
-      <x:c r="K27" s="16"/>
-      <x:c r="L27" s="16"/>
-      <x:c r="M27" s="16"/>
-      <x:c r="N27" s="16"/>
-      <x:c r="O27" s="16"/>
-      <x:c r="P27" s="16"/>
-      <x:c r="Q27" s="26"/>
+      <x:c r="B27" s="30"/>
+      <x:c r="C27" s="25"/>
+      <x:c r="D27" s="25"/>
+      <x:c r="E27" s="25"/>
+      <x:c r="F27" s="25"/>
+      <x:c r="G27" s="25"/>
+      <x:c r="H27" s="25"/>
+      <x:c r="I27" s="25"/>
+      <x:c r="J27" s="25"/>
+      <x:c r="K27" s="25"/>
+      <x:c r="L27" s="25"/>
+      <x:c r="M27" s="25"/>
+      <x:c r="N27" s="25"/>
+      <x:c r="O27" s="25"/>
+      <x:c r="P27" s="25"/>
+      <x:c r="Q27" s="31"/>
     </x:row>
     <x:row r="28" spans="2:17" ht="16.75">
-      <x:c r="B28" s="17" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C28" s="21"/>
-      <x:c r="D28" s="17" t="s">
+      <x:c r="B28" s="21" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C28" s="26"/>
+      <x:c r="D28" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="26"/>
+      <x:c r="F28" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G28" s="26"/>
+      <x:c r="H28" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I28" s="26"/>
+      <x:c r="J28" s="21" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K28" s="26"/>
+      <x:c r="L28" s="21" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M28" s="26"/>
+      <x:c r="N28" s="21" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O28" s="26"/>
+      <x:c r="P28" s="21" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E28" s="21"/>
-      <x:c r="F28" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G28" s="21"/>
-      <x:c r="H28" s="17" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I28" s="21"/>
-      <x:c r="J28" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K28" s="21"/>
-      <x:c r="L28" s="17" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="M28" s="21"/>
-      <x:c r="N28" s="17" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O28" s="21"/>
-      <x:c r="P28" s="17" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="Q28" s="21"/>
+      <x:c r="Q28" s="26"/>
     </x:row>
     <x:row r="29" spans="2:17" ht="16.75" customHeight="1">
       <x:c r="B29" s="62" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C29" s="63"/>
-      <x:c r="D29" s="63"/>
+      <x:c r="D29" s="63" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E29" s="63"/>
-      <x:c r="F29" s="68" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G29" s="66"/>
-      <x:c r="H29" s="66"/>
-      <x:c r="I29" s="66"/>
+      <x:c r="F29" s="66" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G29" s="67"/>
+      <x:c r="H29" s="67"/>
+      <x:c r="I29" s="67"/>
       <x:c r="J29" s="69" t="s">
-        <x:v>46</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K29" s="69"/>
       <x:c r="L29" s="69"/>
       <x:c r="M29" s="70"/>
-      <x:c r="N29" s="78" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="O29" s="73"/>
-      <x:c r="P29" s="73"/>
-      <x:c r="Q29" s="74"/>
+      <x:c r="N29" s="73" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="O29" s="74"/>
+      <x:c r="P29" s="74"/>
+      <x:c r="Q29" s="75"/>
     </x:row>
-    <x:row r="30" spans="2:17">
-      <x:c r="B30" s="64"/>
+    <x:row r="30" spans="2:17" ht="16.75">
+      <x:c r="B30" s="64" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="C30" s="65"/>
       <x:c r="D30" s="65"/>
       <x:c r="E30" s="65"/>
-      <x:c r="F30" s="67"/>
-      <x:c r="G30" s="67"/>
-      <x:c r="H30" s="67"/>
-      <x:c r="I30" s="67"/>
+      <x:c r="F30" s="68"/>
+      <x:c r="G30" s="68"/>
+      <x:c r="H30" s="68"/>
+      <x:c r="I30" s="68"/>
       <x:c r="J30" s="71"/>
       <x:c r="K30" s="71"/>
       <x:c r="L30" s="71"/>
       <x:c r="M30" s="72"/>
-      <x:c r="N30" s="75"/>
-      <x:c r="O30" s="76"/>
-      <x:c r="P30" s="76"/>
-      <x:c r="Q30" s="77"/>
+      <x:c r="N30" s="76"/>
+      <x:c r="O30" s="77"/>
+      <x:c r="P30" s="77"/>
+      <x:c r="Q30" s="78"/>
     </x:row>
     <x:row r="31" spans="2:17" ht="16.75">
       <x:c r="B31" s="5"/>
@@ -3154,18 +3164,18 @@
       <x:c r="E31" s="8"/>
       <x:c r="F31" s="8"/>
       <x:c r="G31" s="8"/>
-      <x:c r="H31" s="57"/>
-      <x:c r="I31" s="58"/>
-      <x:c r="J31" s="58"/>
-      <x:c r="K31" s="58"/>
-      <x:c r="L31" s="58"/>
-      <x:c r="M31" s="59"/>
+      <x:c r="H31" s="16"/>
+      <x:c r="I31" s="17"/>
+      <x:c r="J31" s="17"/>
+      <x:c r="K31" s="17"/>
+      <x:c r="L31" s="17"/>
+      <x:c r="M31" s="18"/>
       <x:c r="N31" s="14"/>
       <x:c r="O31" s="12"/>
-      <x:c r="P31" s="60"/>
-      <x:c r="Q31" s="61"/>
+      <x:c r="P31" s="19"/>
+      <x:c r="Q31" s="20"/>
     </x:row>
-    <x:row r="32" spans="2:17">
+    <x:row r="32" spans="2:17" ht="16.75">
       <x:c r="B32" s="6"/>
       <x:c r="C32" s="9"/>
       <x:c r="D32" s="9"/>
@@ -3180,8 +3190,8 @@
       <x:c r="M32" s="9"/>
       <x:c r="N32" s="10"/>
       <x:c r="O32" s="10"/>
-      <x:c r="P32" s="57"/>
-      <x:c r="Q32" s="59"/>
+      <x:c r="P32" s="16"/>
+      <x:c r="Q32" s="18"/>
     </x:row>
     <x:row r="33" spans="2:17">
       <x:c r="B33" s="6"/>
@@ -3238,77 +3248,77 @@
       <x:c r="Q35" s="13"/>
     </x:row>
     <x:row r="36" spans="2:13" ht="17.149999999999999">
-      <x:c r="B36" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C36" s="18"/>
-      <x:c r="D36" s="18" t="s">
+      <x:c r="B36" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C36" s="22"/>
+      <x:c r="D36" s="22" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E36" s="18"/>
-      <x:c r="F36" s="18" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G36" s="18"/>
-      <x:c r="H36" s="18" t="s">
+      <x:c r="E36" s="22"/>
+      <x:c r="F36" s="22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G36" s="22"/>
+      <x:c r="H36" s="22" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I36" s="22"/>
+      <x:c r="J36" s="23" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I36" s="18"/>
-      <x:c r="J36" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K36" s="19"/>
-      <x:c r="L36" s="20"/>
-      <x:c r="M36" s="16"/>
+      <x:c r="K36" s="23"/>
+      <x:c r="L36" s="24"/>
+      <x:c r="M36" s="25"/>
     </x:row>
     <x:row r="37" spans="2:13" ht="16.75" customHeight="1">
-      <x:c r="B37" s="87" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C37" s="79"/>
-      <x:c r="D37" s="79"/>
-      <x:c r="E37" s="80"/>
-      <x:c r="F37" s="89" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G37" s="90"/>
-      <x:c r="H37" s="95" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I37" s="88"/>
-      <x:c r="J37" s="88"/>
-      <x:c r="K37" s="88"/>
+      <x:c r="B37" s="79" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C37" s="80"/>
+      <x:c r="D37" s="80"/>
+      <x:c r="E37" s="81"/>
+      <x:c r="F37" s="90" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G37" s="91"/>
+      <x:c r="H37" s="88" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I37" s="89"/>
+      <x:c r="J37" s="89"/>
+      <x:c r="K37" s="89"/>
       <x:c r="L37" s="3"/>
       <x:c r="M37" s="10"/>
     </x:row>
     <x:row r="38" spans="2:13">
-      <x:c r="B38" s="81"/>
-      <x:c r="C38" s="82"/>
-      <x:c r="D38" s="82"/>
-      <x:c r="E38" s="83"/>
-      <x:c r="F38" s="91"/>
-      <x:c r="G38" s="92"/>
-      <x:c r="H38" s="88"/>
-      <x:c r="I38" s="88"/>
-      <x:c r="J38" s="88"/>
-      <x:c r="K38" s="88"/>
+      <x:c r="B38" s="82"/>
+      <x:c r="C38" s="83"/>
+      <x:c r="D38" s="83"/>
+      <x:c r="E38" s="84"/>
+      <x:c r="F38" s="92"/>
+      <x:c r="G38" s="93"/>
+      <x:c r="H38" s="89"/>
+      <x:c r="I38" s="89"/>
+      <x:c r="J38" s="89"/>
+      <x:c r="K38" s="89"/>
       <x:c r="L38" s="3"/>
       <x:c r="M38" s="10"/>
     </x:row>
     <x:row r="39" spans="2:11">
-      <x:c r="B39" s="84"/>
-      <x:c r="C39" s="85"/>
-      <x:c r="D39" s="85"/>
-      <x:c r="E39" s="86"/>
-      <x:c r="F39" s="93"/>
-      <x:c r="G39" s="94"/>
-      <x:c r="H39" s="88"/>
-      <x:c r="I39" s="88"/>
-      <x:c r="J39" s="88"/>
-      <x:c r="K39" s="88"/>
+      <x:c r="B39" s="85"/>
+      <x:c r="C39" s="86"/>
+      <x:c r="D39" s="86"/>
+      <x:c r="E39" s="87"/>
+      <x:c r="F39" s="94"/>
+      <x:c r="G39" s="95"/>
+      <x:c r="H39" s="89"/>
+      <x:c r="I39" s="89"/>
+      <x:c r="J39" s="89"/>
+      <x:c r="K39" s="89"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="53">
+  <x:mergeCells count="55">
     <x:mergeCell ref="B36:C36"/>
     <x:mergeCell ref="D36:E36"/>
     <x:mergeCell ref="F36:G36"/>
@@ -3355,13 +3365,15 @@
     <x:mergeCell ref="F17:G17"/>
     <x:mergeCell ref="F12:G15"/>
     <x:mergeCell ref="J16:K16"/>
-    <x:mergeCell ref="B29:E30"/>
     <x:mergeCell ref="F29:I30"/>
     <x:mergeCell ref="J29:M30"/>
     <x:mergeCell ref="N29:Q30"/>
     <x:mergeCell ref="B37:E39"/>
     <x:mergeCell ref="H37:K39"/>
     <x:mergeCell ref="F37:G39"/>
+    <x:mergeCell ref="D29:E30"/>
+    <x:mergeCell ref="B29:C29"/>
+    <x:mergeCell ref="B30:C30"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
+++ b/졸업작품 제안서/2020182051전태준 졸업작품 계획표.xlsx
@@ -21,106 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
-    <x:t>(인터페이스)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학기중 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(컴포지션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(델리게이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 1주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 4주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 3주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월 3주차</x:t>
+    <x:t>언리얼 엔진 c++</x:t>
   </x:si>
   <x:si>
     <x:t>ai 시스템 구현</x:t>
   </x:si>
   <x:si>
+    <x:t>로코모션,공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유데미 강의 공부</x:t>
+  </x:si>
+  <x:si>
     <x:t>방학 기간 계획</x:t>
   </x:si>
   <x:si>
-    <x:t>유데미 강의 공부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로코모션,공격 구현</x:t>
-  </x:si>
-  <x:si>
     <x:t>월드생성 코드 분석</x:t>
   </x:si>
   <x:si>
-    <x:t>원거리 스킬1 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 스킬2 개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언리얼 엔진 c++</x:t>
+    <x:t>가능하게 완성하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간되돌리기 기술/ 여러 타입의 무기제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에임오프셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중점기술 정하고 해당부분 제작</x:t>
   </x:si>
   <x:si>
     <x:t>엔진 내부 구조에 친숙해지기 핵심 5개 클래스(UObject
@@ -130,53 +64,115 @@
 Character)</x:t>
   </x:si>
   <x:si>
-    <x:t>언리얼엔진 Lanch 소스코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근거리 스킬2
-(시간 되돌리기)</x:t>
+    <x:t>9월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(인터페이스)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(컴포지션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학기중 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 4주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(델리게이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월 3주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 4주차</x:t>
   </x:si>
   <x:si>
     <x:t>간단한 토이프로젝트 제작하면서 필요한 부분 찾아보고</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>게임 기본적인 부분들은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔진 초기화 소스코드 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간 날때 블렌더 공부하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(엔진 오브젝트 리플렉션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간단한 데모 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접공격 완성하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학기중 만든 에셋 적용해서 데모 2차 제작하기</x:t>
   </x:si>
   <x:si>
     <x:t>입력시스템 다시 ue5 버전으로구현,</x:t>
   </x:si>
   <x:si>
-    <x:t>개발한것들
-합쳐서 게임형식으로 마무리 하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 근거리 스킬1
-(메쉬절단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존 계획에서 못한것들 보충</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔진 초기화 소스코드 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(엔진 오브젝트 리플렉션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간 날때 블렌더 공부하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼시스턴트레벨 로딩 코드분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈것 개발
-(로봇(?))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 기본적인 부분들은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가능하게 완성하기</x:t>
+    <x:t>이전에 만들던 데모에 적용해보기</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -224,12 +220,6 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffff00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
         <x:fgColor rgb="ffc0cdef"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
@@ -261,6 +251,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffffceb0"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1537,52 +1533,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1590,44 +1573,70 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1648,6 +1657,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1758,58 +1780,58 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1823,52 +1845,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1876,25 +1885,64 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1914,45 +1962,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1960,19 +1969,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2669,8 +2665,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A9:S39"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A25" activeCellId="0" sqref="A25:A25"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G40" activeCellId="0" sqref="G40:G40"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2684,7 +2680,7 @@
   <x:sheetData>
     <x:row r="9" spans="2:19">
       <x:c r="B9" s="34" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="35"/>
       <x:c r="D9" s="35"/>
@@ -2727,65 +2723,65 @@
     </x:row>
     <x:row r="11" spans="2:19" ht="16.75">
       <x:c r="B11" s="44" t="s">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="45"/>
       <x:c r="D11" s="46" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E11" s="45"/>
       <x:c r="F11" s="40" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G11" s="47"/>
       <x:c r="H11" s="40" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I11" s="47"/>
       <x:c r="J11" s="40" t="s">
-        <x:v>16</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K11" s="47"/>
       <x:c r="L11" s="40" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M11" s="47"/>
       <x:c r="N11" s="40" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O11" s="41"/>
       <x:c r="P11" s="42" t="s">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q11" s="41"/>
       <x:c r="R11" s="40" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S11" s="43"/>
     </x:row>
     <x:row r="12" spans="2:19">
       <x:c r="B12" s="48" t="s">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="49"/>
       <x:c r="D12" s="48" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="49"/>
       <x:c r="F12" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G12" s="61"/>
       <x:c r="H12" s="48" t="s">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I12" s="49"/>
       <x:c r="J12" s="48" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K12" s="49"/>
       <x:c r="L12" s="48" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M12" s="22"/>
       <x:c r="N12" s="22"/>
@@ -2821,7 +2817,7 @@
       </x:c>
       <x:c r="C14" s="33"/>
       <x:c r="D14" s="32" t="s">
-        <x:v>35</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E14" s="33"/>
       <x:c r="F14" s="58"/>
@@ -2829,7 +2825,7 @@
       <x:c r="H14" s="32"/>
       <x:c r="I14" s="33"/>
       <x:c r="J14" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K14" s="33"/>
       <x:c r="L14" s="32"/>
@@ -2843,7 +2839,7 @@
     </x:row>
     <x:row r="15" spans="2:19">
       <x:c r="B15" s="58" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="59"/>
       <x:c r="D15" s="32"/>
@@ -2855,7 +2851,7 @@
       <x:c r="J15" s="32"/>
       <x:c r="K15" s="33"/>
       <x:c r="L15" s="51" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M15" s="50"/>
       <x:c r="N15" s="50"/>
@@ -2867,19 +2863,19 @@
     </x:row>
     <x:row r="16" spans="2:19">
       <x:c r="B16" s="58" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C16" s="59"/>
       <x:c r="D16" s="32"/>
       <x:c r="E16" s="33"/>
       <x:c r="F16" s="58" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G16" s="59"/>
       <x:c r="H16" s="32"/>
       <x:c r="I16" s="33"/>
       <x:c r="J16" s="58" t="s">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K16" s="59"/>
       <x:c r="L16" s="32"/>
@@ -2893,13 +2889,13 @@
     </x:row>
     <x:row r="17" spans="2:19">
       <x:c r="B17" s="58" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C17" s="59"/>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="4"/>
       <x:c r="F17" s="58" t="s">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G17" s="59"/>
       <x:c r="H17" s="3"/>
@@ -2977,7 +2973,7 @@
     </x:row>
     <x:row r="21" spans="2:19">
       <x:c r="B21" s="55" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C21" s="56"/>
       <x:c r="D21" s="56"/>
@@ -3039,7 +3035,7 @@
     </x:row>
     <x:row r="26" spans="2:17">
       <x:c r="B26" s="27" t="s">
-        <x:v>4</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="28"/>
       <x:c r="D26" s="28"/>
@@ -3077,85 +3073,85 @@
     </x:row>
     <x:row r="28" spans="2:17" ht="16.75">
       <x:c r="B28" s="21" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="26"/>
       <x:c r="D28" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="26"/>
       <x:c r="F28" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="26"/>
       <x:c r="H28" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I28" s="26"/>
       <x:c r="J28" s="21" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K28" s="26"/>
       <x:c r="L28" s="21" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M28" s="26"/>
       <x:c r="N28" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O28" s="26"/>
       <x:c r="P28" s="21" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q28" s="26"/>
     </x:row>
     <x:row r="29" spans="2:17" ht="16.75" customHeight="1">
-      <x:c r="B29" s="62" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C29" s="63"/>
-      <x:c r="D29" s="63" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E29" s="63"/>
-      <x:c r="F29" s="66" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G29" s="67"/>
-      <x:c r="H29" s="67"/>
-      <x:c r="I29" s="67"/>
-      <x:c r="J29" s="69" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K29" s="69"/>
-      <x:c r="L29" s="69"/>
-      <x:c r="M29" s="70"/>
-      <x:c r="N29" s="73" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="O29" s="74"/>
-      <x:c r="P29" s="74"/>
-      <x:c r="Q29" s="75"/>
+      <x:c r="B29" s="94" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C29" s="92"/>
+      <x:c r="D29" s="92" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E29" s="92"/>
+      <x:c r="F29" s="62" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G29" s="63"/>
+      <x:c r="H29" s="63"/>
+      <x:c r="I29" s="63"/>
+      <x:c r="J29" s="65" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K29" s="65"/>
+      <x:c r="L29" s="65"/>
+      <x:c r="M29" s="66"/>
+      <x:c r="N29" s="69" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O29" s="70"/>
+      <x:c r="P29" s="70"/>
+      <x:c r="Q29" s="71"/>
     </x:row>
     <x:row r="30" spans="2:17" ht="16.75">
-      <x:c r="B30" s="64" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C30" s="65"/>
-      <x:c r="D30" s="65"/>
-      <x:c r="E30" s="65"/>
-      <x:c r="F30" s="68"/>
-      <x:c r="G30" s="68"/>
-      <x:c r="H30" s="68"/>
-      <x:c r="I30" s="68"/>
-      <x:c r="J30" s="71"/>
-      <x:c r="K30" s="71"/>
-      <x:c r="L30" s="71"/>
-      <x:c r="M30" s="72"/>
-      <x:c r="N30" s="76"/>
-      <x:c r="O30" s="77"/>
-      <x:c r="P30" s="77"/>
-      <x:c r="Q30" s="78"/>
+      <x:c r="B30" s="95" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C30" s="93"/>
+      <x:c r="D30" s="93"/>
+      <x:c r="E30" s="93"/>
+      <x:c r="F30" s="64"/>
+      <x:c r="G30" s="64"/>
+      <x:c r="H30" s="64"/>
+      <x:c r="I30" s="64"/>
+      <x:c r="J30" s="67"/>
+      <x:c r="K30" s="67"/>
+      <x:c r="L30" s="67"/>
+      <x:c r="M30" s="68"/>
+      <x:c r="N30" s="72"/>
+      <x:c r="O30" s="73"/>
+      <x:c r="P30" s="73"/>
+      <x:c r="Q30" s="74"/>
     </x:row>
     <x:row r="31" spans="2:17" ht="16.75">
       <x:c r="B31" s="5"/>
@@ -3249,73 +3245,73 @@
     </x:row>
     <x:row r="36" spans="2:13" ht="17.149999999999999">
       <x:c r="B36" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C36" s="22"/>
       <x:c r="D36" s="22" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E36" s="22"/>
       <x:c r="F36" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G36" s="22"/>
       <x:c r="H36" s="22" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I36" s="22"/>
       <x:c r="J36" s="23" t="s">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K36" s="23"/>
       <x:c r="L36" s="24"/>
       <x:c r="M36" s="25"/>
     </x:row>
     <x:row r="37" spans="2:13" ht="16.75" customHeight="1">
-      <x:c r="B37" s="79" t="s">
+      <x:c r="B37" s="75" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C37" s="76"/>
+      <x:c r="D37" s="76"/>
+      <x:c r="E37" s="77"/>
+      <x:c r="F37" s="86" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G37" s="87"/>
+      <x:c r="H37" s="84" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C37" s="80"/>
-      <x:c r="D37" s="80"/>
-      <x:c r="E37" s="81"/>
-      <x:c r="F37" s="90" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G37" s="91"/>
-      <x:c r="H37" s="88" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I37" s="89"/>
-      <x:c r="J37" s="89"/>
-      <x:c r="K37" s="89"/>
+      <x:c r="I37" s="85"/>
+      <x:c r="J37" s="85"/>
+      <x:c r="K37" s="85"/>
       <x:c r="L37" s="3"/>
       <x:c r="M37" s="10"/>
     </x:row>
     <x:row r="38" spans="2:13">
-      <x:c r="B38" s="82"/>
-      <x:c r="C38" s="83"/>
-      <x:c r="D38" s="83"/>
-      <x:c r="E38" s="84"/>
-      <x:c r="F38" s="92"/>
-      <x:c r="G38" s="93"/>
-      <x:c r="H38" s="89"/>
-      <x:c r="I38" s="89"/>
-      <x:c r="J38" s="89"/>
-      <x:c r="K38" s="89"/>
+      <x:c r="B38" s="78"/>
+      <x:c r="C38" s="79"/>
+      <x:c r="D38" s="79"/>
+      <x:c r="E38" s="80"/>
+      <x:c r="F38" s="88"/>
+      <x:c r="G38" s="89"/>
+      <x:c r="H38" s="85"/>
+      <x:c r="I38" s="85"/>
+      <x:c r="J38" s="85"/>
+      <x:c r="K38" s="85"/>
       <x:c r="L38" s="3"/>
       <x:c r="M38" s="10"/>
     </x:row>
     <x:row r="39" spans="2:11">
-      <x:c r="B39" s="85"/>
-      <x:c r="C39" s="86"/>
-      <x:c r="D39" s="86"/>
-      <x:c r="E39" s="87"/>
-      <x:c r="F39" s="94"/>
-      <x:c r="G39" s="95"/>
-      <x:c r="H39" s="89"/>
-      <x:c r="I39" s="89"/>
-      <x:c r="J39" s="89"/>
-      <x:c r="K39" s="89"/>
+      <x:c r="B39" s="81"/>
+      <x:c r="C39" s="82"/>
+      <x:c r="D39" s="82"/>
+      <x:c r="E39" s="83"/>
+      <x:c r="F39" s="90"/>
+      <x:c r="G39" s="91"/>
+      <x:c r="H39" s="85"/>
+      <x:c r="I39" s="85"/>
+      <x:c r="J39" s="85"/>
+      <x:c r="K39" s="85"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="55">
